--- a/2021年F题第2问/A/机组排班Data A-Flight.xlsx
+++ b/2021年F题第2问/A/机组排班Data A-Flight.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzhenhua/Documents/GitHub/Postgraduate-Mathematical-Contest-in-Modelling/2021年F题第2问/A/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0A0C81-84F7-5D4B-883B-0DC1C9E35044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="500" yWindow="1100" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机组排班Data A-Flight - 副本" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'机组排班Data A-Flight - 副本'!$A$1:$Q$207</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -148,15 +167,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yymmdd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yymmdd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,345 +180,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -511,260 +203,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -782,61 +223,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1121,28 +518,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="P208" sqref="P208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="10.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="12.8888888888889"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D2">
         <v>234</v>
@@ -1194,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G2">
         <v>235</v>
@@ -1211,11 +608,11 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K65" si="1">VALUE(C2)</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L2">
         <f>J2+K2</f>
-        <v>44419.3333333333</v>
+        <v>44419.333333333336</v>
       </c>
       <c r="M2" s="3">
         <v>44419</v>
@@ -1226,21 +623,21 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O65" si="3">VALUE(F2)</f>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P65" si="4">N2+O2</f>
-        <v>44419.3958333333</v>
+        <v>44419.395833333336</v>
       </c>
       <c r="Q2">
         <v>680</v>
       </c>
       <c r="R2">
         <f>O2-K2</f>
-        <v>0.0625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D3">
         <v>235</v>
@@ -1257,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G3">
         <v>234</v>
@@ -1274,11 +671,11 @@
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L2:L65" si="5">J3+K3</f>
-        <v>44419.4236111111</v>
+        <f t="shared" ref="L3:L65" si="5">J3+K3</f>
+        <v>44419.423611111109</v>
       </c>
       <c r="M3" s="3">
         <v>44419</v>
@@ -1289,17 +686,17 @@
       </c>
       <c r="O3">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P3">
         <f t="shared" si="4"/>
-        <v>44419.4861111111</v>
+        <v>44419.486111111109</v>
       </c>
       <c r="Q3">
         <v>681</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D4">
         <v>234</v>
@@ -1316,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G4">
         <v>237</v>
@@ -1333,11 +730,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L4">
         <f t="shared" si="5"/>
-        <v>44419.4791666667</v>
+        <v>44419.479166666664</v>
       </c>
       <c r="M4" s="3">
         <v>44419</v>
@@ -1348,17 +745,17 @@
       </c>
       <c r="O4">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>44419.5763888889</v>
+        <v>44419.576388888891</v>
       </c>
       <c r="Q4">
         <v>884</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1366,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D5">
         <v>234</v>
@@ -1375,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G5">
         <v>236</v>
@@ -1392,11 +789,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L5">
         <f t="shared" si="5"/>
-        <v>44419.5138888889</v>
+        <v>44419.513888888891</v>
       </c>
       <c r="M5" s="3">
         <v>44419</v>
@@ -1407,17 +804,17 @@
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
-        <v>44419.5868055556</v>
+        <v>44419.586805555555</v>
       </c>
       <c r="Q5">
         <v>812</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1425,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D6">
         <v>237</v>
@@ -1434,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G6">
         <v>234</v>
@@ -1451,11 +848,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L6">
         <f t="shared" si="5"/>
-        <v>44419.6041666667</v>
+        <v>44419.604166666664</v>
       </c>
       <c r="M6" s="3">
         <v>44419</v>
@@ -1466,17 +863,17 @@
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>44419.7013888889</v>
+        <v>44419.701388888891</v>
       </c>
       <c r="Q6">
         <v>885</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D7">
         <v>236</v>
@@ -1493,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G7">
         <v>234</v>
@@ -1510,11 +907,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>44419.6180555556</v>
+        <v>44419.618055555555</v>
       </c>
       <c r="M7" s="3">
         <v>44419</v>
@@ -1525,17 +922,17 @@
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>44419.6944444444</v>
+        <v>44419.694444444445</v>
       </c>
       <c r="Q7">
         <v>813</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>0.722222222222222</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="D8">
         <v>234</v>
@@ -1552,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="2">
-        <v>0.791666666666667</v>
+        <v>0.79166666666666696</v>
       </c>
       <c r="G8">
         <v>237</v>
@@ -1569,11 +966,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>0.722222222222222</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="L8">
         <f t="shared" si="5"/>
-        <v>44419.7222222222</v>
+        <v>44419.722222222219</v>
       </c>
       <c r="M8" s="3">
         <v>44419</v>
@@ -1584,17 +981,17 @@
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>0.791666666666667</v>
+        <v>0.79166666666666696</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>44419.7916666667</v>
+        <v>44419.791666666664</v>
       </c>
       <c r="Q8">
         <v>854</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1602,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D9">
         <v>234</v>
@@ -1611,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G9">
         <v>237</v>
@@ -1628,11 +1025,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L9">
         <f t="shared" si="5"/>
-        <v>44419.7291666667</v>
+        <v>44419.729166666664</v>
       </c>
       <c r="M9" s="3">
         <v>44419</v>
@@ -1643,17 +1040,17 @@
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>44419.8020833333</v>
+        <v>44419.802083333336</v>
       </c>
       <c r="Q9">
         <v>864</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1661,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>0.822916666666667</v>
+        <v>0.82291666666666696</v>
       </c>
       <c r="D10">
         <v>237</v>
@@ -1670,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>0.895833333333333</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="G10">
         <v>234</v>
@@ -1687,11 +1084,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>0.822916666666667</v>
+        <v>0.82291666666666696</v>
       </c>
       <c r="L10">
         <f t="shared" si="5"/>
-        <v>44419.8229166667</v>
+        <v>44419.822916666664</v>
       </c>
       <c r="M10" s="3">
         <v>44419</v>
@@ -1702,17 +1099,17 @@
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.895833333333333</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>44419.8958333333</v>
+        <v>44419.895833333336</v>
       </c>
       <c r="Q10">
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D11">
         <v>237</v>
@@ -1746,11 +1143,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>44419.8333333333</v>
+        <v>44419.833333333336</v>
       </c>
       <c r="M11" s="3">
         <v>44419</v>
@@ -1771,7 +1168,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1176,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D12">
         <v>234</v>
@@ -1791,7 +1188,7 @@
         <v>0.375</v>
       </c>
       <c r="G12">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -1805,11 +1202,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
-        <v>44420.3298611111</v>
+        <v>44420.329861111109</v>
       </c>
       <c r="M12" s="3">
         <v>44420</v>
@@ -1830,7 +1227,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1838,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D13">
         <v>234</v>
@@ -1847,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G13">
         <v>235</v>
@@ -1864,11 +1261,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
-        <v>44420.3333333333</v>
+        <v>44420.333333333336</v>
       </c>
       <c r="M13" s="3">
         <v>44420</v>
@@ -1879,17 +1276,17 @@
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>44420.3958333333</v>
+        <v>44420.395833333336</v>
       </c>
       <c r="Q13">
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1897,16 +1294,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D14">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G14">
         <v>234</v>
@@ -1923,11 +1320,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
-        <v>44420.4027777778</v>
+        <v>44420.402777777781</v>
       </c>
       <c r="M14" s="3">
         <v>44420</v>
@@ -1938,17 +1335,17 @@
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>44420.4513888889</v>
+        <v>44420.451388888891</v>
       </c>
       <c r="Q14">
         <v>873</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1956,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D15">
         <v>235</v>
@@ -1965,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G15">
         <v>234</v>
@@ -1982,11 +1379,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
-        <v>44420.4236111111</v>
+        <v>44420.423611111109</v>
       </c>
       <c r="M15" s="3">
         <v>44420</v>
@@ -1997,17 +1394,17 @@
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>44420.4861111111</v>
+        <v>44420.486111111109</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2015,7 +1412,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D16">
         <v>235</v>
@@ -2024,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G16">
         <v>234</v>
@@ -2041,11 +1438,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
-        <v>44420.4236111111</v>
+        <v>44420.423611111109</v>
       </c>
       <c r="M16" s="3">
         <v>44420</v>
@@ -2056,11 +1453,11 @@
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>44420.4861111111</v>
+        <v>44420.486111111109</v>
       </c>
       <c r="Q16">
         <v>681</v>
@@ -2074,7 +1471,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>0.434027777777778</v>
+        <v>0.43402777777777801</v>
       </c>
       <c r="D17">
         <v>235</v>
@@ -2083,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G17">
         <v>234</v>
@@ -2100,11 +1497,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>0.434027777777778</v>
+        <v>0.43402777777777801</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
-        <v>44420.4340277778</v>
+        <v>44420.434027777781</v>
       </c>
       <c r="M17" s="3">
         <v>44420</v>
@@ -2115,11 +1512,11 @@
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>44420.4861111111</v>
+        <v>44420.486111111109</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -2142,7 +1539,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G18">
         <v>234</v>
@@ -2174,11 +1571,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>44420.5347222222</v>
+        <v>44420.534722222219</v>
       </c>
       <c r="Q18">
         <v>891</v>
@@ -2192,7 +1589,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D19">
         <v>234</v>
@@ -2201,7 +1598,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G19">
         <v>237</v>
@@ -2218,11 +1615,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>44420.4791666667</v>
+        <v>44420.479166666664</v>
       </c>
       <c r="M19" s="3">
         <v>44420</v>
@@ -2233,11 +1630,11 @@
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>44420.5763888889</v>
+        <v>44420.576388888891</v>
       </c>
       <c r="Q19">
         <v>884</v>
@@ -2251,7 +1648,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D20">
         <v>234</v>
@@ -2260,7 +1657,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G20">
         <v>236</v>
@@ -2277,11 +1674,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>44420.5138888889</v>
+        <v>44420.513888888891</v>
       </c>
       <c r="M20" s="3">
         <v>44420</v>
@@ -2292,11 +1689,11 @@
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>44420.5868055556</v>
+        <v>44420.586805555555</v>
       </c>
       <c r="Q20">
         <v>812</v>
@@ -2310,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D21">
         <v>234</v>
@@ -2319,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G21">
         <v>237</v>
@@ -2336,11 +1733,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>44420.5763888889</v>
+        <v>44420.576388888891</v>
       </c>
       <c r="M21" s="3">
         <v>44420</v>
@@ -2351,11 +1748,11 @@
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>44420.6458333333</v>
+        <v>44420.645833333336</v>
       </c>
       <c r="Q21">
         <v>854</v>
@@ -2369,7 +1766,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D22">
         <v>237</v>
@@ -2378,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G22">
         <v>234</v>
@@ -2395,11 +1792,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>44420.6041666667</v>
+        <v>44420.604166666664</v>
       </c>
       <c r="M22" s="3">
         <v>44420</v>
@@ -2410,11 +1807,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>44420.7013888889</v>
+        <v>44420.701388888891</v>
       </c>
       <c r="Q22">
         <v>885</v>
@@ -2428,7 +1825,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D23">
         <v>236</v>
@@ -2437,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G23">
         <v>234</v>
@@ -2454,11 +1851,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>44420.6180555556</v>
+        <v>44420.618055555555</v>
       </c>
       <c r="M23" s="3">
         <v>44420</v>
@@ -2469,11 +1866,11 @@
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>44420.6944444444</v>
+        <v>44420.694444444445</v>
       </c>
       <c r="Q23">
         <v>813</v>
@@ -2487,7 +1884,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D24">
         <v>237</v>
@@ -2496,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G24">
         <v>234</v>
@@ -2513,11 +1910,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>44420.6736111111</v>
+        <v>44420.673611111109</v>
       </c>
       <c r="M24" s="3">
         <v>44420</v>
@@ -2528,11 +1925,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>44420.7465277778</v>
+        <v>44420.746527777781</v>
       </c>
       <c r="Q24">
         <v>855</v>
@@ -2546,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D25">
         <v>234</v>
@@ -2555,7 +1952,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G25">
         <v>237</v>
@@ -2572,11 +1969,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>44420.7291666667</v>
+        <v>44420.729166666664</v>
       </c>
       <c r="M25" s="3">
         <v>44420</v>
@@ -2587,11 +1984,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>44420.8020833333</v>
+        <v>44420.802083333336</v>
       </c>
       <c r="Q25">
         <v>864</v>
@@ -2605,7 +2002,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D26">
         <v>237</v>
@@ -2631,11 +2028,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>44420.8333333333</v>
+        <v>44420.833333333336</v>
       </c>
       <c r="M26" s="3">
         <v>44420</v>
@@ -2664,7 +2061,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D27">
         <v>234</v>
@@ -2676,7 +2073,7 @@
         <v>0.375</v>
       </c>
       <c r="G27">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H27" t="s">
         <v>10</v>
@@ -2690,11 +2087,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>44421.3298611111</v>
+        <v>44421.329861111109</v>
       </c>
       <c r="M27" s="3">
         <v>44421</v>
@@ -2723,7 +2120,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D28">
         <v>234</v>
@@ -2732,7 +2129,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G28">
         <v>235</v>
@@ -2749,11 +2146,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>44421.3333333333</v>
+        <v>44421.333333333336</v>
       </c>
       <c r="M28" s="3">
         <v>44421</v>
@@ -2764,11 +2161,11 @@
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>44421.3958333333</v>
+        <v>44421.395833333336</v>
       </c>
       <c r="Q28">
         <v>680</v>
@@ -2782,16 +2179,16 @@
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D29">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G29">
         <v>234</v>
@@ -2808,11 +2205,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>44421.4027777778</v>
+        <v>44421.402777777781</v>
       </c>
       <c r="M29" s="3">
         <v>44421</v>
@@ -2823,11 +2220,11 @@
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
-        <v>44421.4513888889</v>
+        <v>44421.451388888891</v>
       </c>
       <c r="Q29">
         <v>873</v>
@@ -2841,7 +2238,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D30">
         <v>235</v>
@@ -2850,7 +2247,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G30">
         <v>234</v>
@@ -2867,11 +2264,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>44421.4236111111</v>
+        <v>44421.423611111109</v>
       </c>
       <c r="M30" s="3">
         <v>44421</v>
@@ -2882,11 +2279,11 @@
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
-        <v>44421.4861111111</v>
+        <v>44421.486111111109</v>
       </c>
       <c r="Q30">
         <v>681</v>
@@ -2900,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D31">
         <v>234</v>
@@ -2909,7 +2306,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G31">
         <v>237</v>
@@ -2926,11 +2323,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>44421.4791666667</v>
+        <v>44421.479166666664</v>
       </c>
       <c r="M31" s="3">
         <v>44421</v>
@@ -2941,11 +2338,11 @@
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
-        <v>44421.5763888889</v>
+        <v>44421.576388888891</v>
       </c>
       <c r="Q31">
         <v>884</v>
@@ -2959,7 +2356,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D32">
         <v>234</v>
@@ -2968,7 +2365,7 @@
         <v>26</v>
       </c>
       <c r="F32" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G32">
         <v>236</v>
@@ -2985,11 +2382,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>44421.5138888889</v>
+        <v>44421.513888888891</v>
       </c>
       <c r="M32" s="3">
         <v>44421</v>
@@ -3000,11 +2397,11 @@
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
-        <v>44421.5868055556</v>
+        <v>44421.586805555555</v>
       </c>
       <c r="Q32">
         <v>812</v>
@@ -3018,7 +2415,7 @@
         <v>26</v>
       </c>
       <c r="C33" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D33">
         <v>234</v>
@@ -3027,7 +2424,7 @@
         <v>26</v>
       </c>
       <c r="F33" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G33">
         <v>237</v>
@@ -3044,11 +2441,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>44421.5763888889</v>
+        <v>44421.576388888891</v>
       </c>
       <c r="M33" s="3">
         <v>44421</v>
@@ -3059,11 +2456,11 @@
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>44421.6458333333</v>
+        <v>44421.645833333336</v>
       </c>
       <c r="Q33">
         <v>854</v>
@@ -3077,7 +2474,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D34">
         <v>237</v>
@@ -3086,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G34">
         <v>234</v>
@@ -3103,11 +2500,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>44421.6041666667</v>
+        <v>44421.604166666664</v>
       </c>
       <c r="M34" s="3">
         <v>44421</v>
@@ -3118,11 +2515,11 @@
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
-        <v>44421.7013888889</v>
+        <v>44421.701388888891</v>
       </c>
       <c r="Q34">
         <v>885</v>
@@ -3136,7 +2533,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D35">
         <v>236</v>
@@ -3145,7 +2542,7 @@
         <v>26</v>
       </c>
       <c r="F35" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G35">
         <v>234</v>
@@ -3162,11 +2559,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>44421.6180555556</v>
+        <v>44421.618055555555</v>
       </c>
       <c r="M35" s="3">
         <v>44421</v>
@@ -3177,11 +2574,11 @@
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
-        <v>44421.6944444444</v>
+        <v>44421.694444444445</v>
       </c>
       <c r="Q35">
         <v>813</v>
@@ -3195,7 +2592,7 @@
         <v>26</v>
       </c>
       <c r="C36" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D36">
         <v>237</v>
@@ -3204,7 +2601,7 @@
         <v>26</v>
       </c>
       <c r="F36" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G36">
         <v>234</v>
@@ -3221,11 +2618,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>44421.6736111111</v>
+        <v>44421.673611111109</v>
       </c>
       <c r="M36" s="3">
         <v>44421</v>
@@ -3236,11 +2633,11 @@
       </c>
       <c r="O36">
         <f t="shared" si="3"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
-        <v>44421.7465277778</v>
+        <v>44421.746527777781</v>
       </c>
       <c r="Q36">
         <v>855</v>
@@ -3254,7 +2651,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D37">
         <v>234</v>
@@ -3263,7 +2660,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G37">
         <v>237</v>
@@ -3280,11 +2677,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
-        <v>44421.7291666667</v>
+        <v>44421.729166666664</v>
       </c>
       <c r="M37" s="3">
         <v>44421</v>
@@ -3295,11 +2692,11 @@
       </c>
       <c r="O37">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
-        <v>44421.8020833333</v>
+        <v>44421.802083333336</v>
       </c>
       <c r="Q37">
         <v>864</v>
@@ -3313,7 +2710,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D38">
         <v>237</v>
@@ -3339,11 +2736,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>44421.8333333333</v>
+        <v>44421.833333333336</v>
       </c>
       <c r="M38" s="3">
         <v>44421</v>
@@ -3381,7 +2778,7 @@
         <v>28</v>
       </c>
       <c r="F39" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G39">
         <v>237</v>
@@ -3413,11 +2810,11 @@
       </c>
       <c r="O39">
         <f t="shared" si="3"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
-        <v>44422.4097222222</v>
+        <v>44422.409722222219</v>
       </c>
       <c r="Q39">
         <v>890</v>
@@ -3431,7 +2828,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D40">
         <v>234</v>
@@ -3443,7 +2840,7 @@
         <v>0.375</v>
       </c>
       <c r="G40">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H40" t="s">
         <v>10</v>
@@ -3457,11 +2854,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>44422.3298611111</v>
+        <v>44422.329861111109</v>
       </c>
       <c r="M40" s="3">
         <v>44422</v>
@@ -3490,7 +2887,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D41">
         <v>234</v>
@@ -3499,7 +2896,7 @@
         <v>28</v>
       </c>
       <c r="F41" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G41">
         <v>235</v>
@@ -3516,11 +2913,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>44422.3333333333</v>
+        <v>44422.333333333336</v>
       </c>
       <c r="M41" s="3">
         <v>44422</v>
@@ -3531,11 +2928,11 @@
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
-        <v>44422.3958333333</v>
+        <v>44422.395833333336</v>
       </c>
       <c r="Q41">
         <v>680</v>
@@ -3549,16 +2946,16 @@
         <v>28</v>
       </c>
       <c r="C42" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D42">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G42">
         <v>234</v>
@@ -3575,11 +2972,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>44422.4027777778</v>
+        <v>44422.402777777781</v>
       </c>
       <c r="M42" s="3">
         <v>44422</v>
@@ -3590,11 +2987,11 @@
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
-        <v>44422.4513888889</v>
+        <v>44422.451388888891</v>
       </c>
       <c r="Q42">
         <v>873</v>
@@ -3608,7 +3005,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D43">
         <v>235</v>
@@ -3617,7 +3014,7 @@
         <v>28</v>
       </c>
       <c r="F43" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G43">
         <v>234</v>
@@ -3634,11 +3031,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>44422.4236111111</v>
+        <v>44422.423611111109</v>
       </c>
       <c r="M43" s="3">
         <v>44422</v>
@@ -3649,11 +3046,11 @@
       </c>
       <c r="O43">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
-        <v>44422.4861111111</v>
+        <v>44422.486111111109</v>
       </c>
       <c r="Q43">
         <v>681</v>
@@ -3676,7 +3073,7 @@
         <v>28</v>
       </c>
       <c r="F44" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G44">
         <v>234</v>
@@ -3708,11 +3105,11 @@
       </c>
       <c r="O44">
         <f t="shared" si="3"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
-        <v>44422.5347222222</v>
+        <v>44422.534722222219</v>
       </c>
       <c r="Q44">
         <v>891</v>
@@ -3726,7 +3123,7 @@
         <v>28</v>
       </c>
       <c r="C45" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D45">
         <v>234</v>
@@ -3735,7 +3132,7 @@
         <v>28</v>
       </c>
       <c r="F45" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G45">
         <v>237</v>
@@ -3752,11 +3149,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>44422.4791666667</v>
+        <v>44422.479166666664</v>
       </c>
       <c r="M45" s="3">
         <v>44422</v>
@@ -3767,11 +3164,11 @@
       </c>
       <c r="O45">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
-        <v>44422.5763888889</v>
+        <v>44422.576388888891</v>
       </c>
       <c r="Q45">
         <v>884</v>
@@ -3785,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D46">
         <v>234</v>
@@ -3794,7 +3191,7 @@
         <v>28</v>
       </c>
       <c r="F46" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G46">
         <v>236</v>
@@ -3811,11 +3208,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>44422.5138888889</v>
+        <v>44422.513888888891</v>
       </c>
       <c r="M46" s="3">
         <v>44422</v>
@@ -3826,11 +3223,11 @@
       </c>
       <c r="O46">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
-        <v>44422.5868055556</v>
+        <v>44422.586805555555</v>
       </c>
       <c r="Q46">
         <v>812</v>
@@ -3844,7 +3241,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D47">
         <v>234</v>
@@ -3853,7 +3250,7 @@
         <v>28</v>
       </c>
       <c r="F47" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G47">
         <v>237</v>
@@ -3870,11 +3267,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>44422.5763888889</v>
+        <v>44422.576388888891</v>
       </c>
       <c r="M47" s="3">
         <v>44422</v>
@@ -3885,11 +3282,11 @@
       </c>
       <c r="O47">
         <f t="shared" si="3"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
-        <v>44422.6458333333</v>
+        <v>44422.645833333336</v>
       </c>
       <c r="Q47">
         <v>854</v>
@@ -3903,7 +3300,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D48">
         <v>237</v>
@@ -3912,7 +3309,7 @@
         <v>28</v>
       </c>
       <c r="F48" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G48">
         <v>234</v>
@@ -3929,11 +3326,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L48">
         <f t="shared" si="5"/>
-        <v>44422.6041666667</v>
+        <v>44422.604166666664</v>
       </c>
       <c r="M48" s="3">
         <v>44422</v>
@@ -3944,11 +3341,11 @@
       </c>
       <c r="O48">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
-        <v>44422.7013888889</v>
+        <v>44422.701388888891</v>
       </c>
       <c r="Q48">
         <v>885</v>
@@ -3962,7 +3359,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D49">
         <v>236</v>
@@ -3971,7 +3368,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G49">
         <v>234</v>
@@ -3988,11 +3385,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L49">
         <f t="shared" si="5"/>
-        <v>44422.6180555556</v>
+        <v>44422.618055555555</v>
       </c>
       <c r="M49" s="3">
         <v>44422</v>
@@ -4003,11 +3400,11 @@
       </c>
       <c r="O49">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
-        <v>44422.6944444444</v>
+        <v>44422.694444444445</v>
       </c>
       <c r="Q49">
         <v>813</v>
@@ -4021,7 +3418,7 @@
         <v>28</v>
       </c>
       <c r="C50" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D50">
         <v>237</v>
@@ -4030,7 +3427,7 @@
         <v>28</v>
       </c>
       <c r="F50" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G50">
         <v>234</v>
@@ -4047,11 +3444,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>44422.6736111111</v>
+        <v>44422.673611111109</v>
       </c>
       <c r="M50" s="3">
         <v>44422</v>
@@ -4062,11 +3459,11 @@
       </c>
       <c r="O50">
         <f t="shared" si="3"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
-        <v>44422.7465277778</v>
+        <v>44422.746527777781</v>
       </c>
       <c r="Q50">
         <v>855</v>
@@ -4080,7 +3477,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D51">
         <v>234</v>
@@ -4089,7 +3486,7 @@
         <v>28</v>
       </c>
       <c r="F51" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G51">
         <v>237</v>
@@ -4106,11 +3503,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L51">
         <f t="shared" si="5"/>
-        <v>44422.7291666667</v>
+        <v>44422.729166666664</v>
       </c>
       <c r="M51" s="3">
         <v>44422</v>
@@ -4121,11 +3518,11 @@
       </c>
       <c r="O51">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
-        <v>44422.8020833333</v>
+        <v>44422.802083333336</v>
       </c>
       <c r="Q51">
         <v>864</v>
@@ -4139,7 +3536,7 @@
         <v>28</v>
       </c>
       <c r="C52" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D52">
         <v>237</v>
@@ -4165,11 +3562,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L52">
         <f t="shared" si="5"/>
-        <v>44422.8333333333</v>
+        <v>44422.833333333336</v>
       </c>
       <c r="M52" s="3">
         <v>44422</v>
@@ -4198,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D53">
         <v>234</v>
@@ -4210,7 +3607,7 @@
         <v>0.375</v>
       </c>
       <c r="G53">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H53" t="s">
         <v>10</v>
@@ -4224,11 +3621,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L53">
         <f t="shared" si="5"/>
-        <v>44423.3298611111</v>
+        <v>44423.329861111109</v>
       </c>
       <c r="M53" s="3">
         <v>44423</v>
@@ -4257,7 +3654,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D54">
         <v>234</v>
@@ -4266,7 +3663,7 @@
         <v>29</v>
       </c>
       <c r="F54" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G54">
         <v>235</v>
@@ -4283,11 +3680,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L54">
         <f t="shared" si="5"/>
-        <v>44423.3333333333</v>
+        <v>44423.333333333336</v>
       </c>
       <c r="M54" s="3">
         <v>44423</v>
@@ -4298,11 +3695,11 @@
       </c>
       <c r="O54">
         <f t="shared" si="3"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
-        <v>44423.3958333333</v>
+        <v>44423.395833333336</v>
       </c>
       <c r="Q54">
         <v>680</v>
@@ -4316,16 +3713,16 @@
         <v>29</v>
       </c>
       <c r="C55" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D55">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
       </c>
       <c r="F55" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G55">
         <v>234</v>
@@ -4342,11 +3739,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L55">
         <f t="shared" si="5"/>
-        <v>44423.4027777778</v>
+        <v>44423.402777777781</v>
       </c>
       <c r="M55" s="3">
         <v>44423</v>
@@ -4357,11 +3754,11 @@
       </c>
       <c r="O55">
         <f t="shared" si="3"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P55">
         <f t="shared" si="4"/>
-        <v>44423.4513888889</v>
+        <v>44423.451388888891</v>
       </c>
       <c r="Q55">
         <v>873</v>
@@ -4375,7 +3772,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D56">
         <v>235</v>
@@ -4384,7 +3781,7 @@
         <v>29</v>
       </c>
       <c r="F56" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G56">
         <v>234</v>
@@ -4401,11 +3798,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L56">
         <f t="shared" si="5"/>
-        <v>44423.4236111111</v>
+        <v>44423.423611111109</v>
       </c>
       <c r="M56" s="3">
         <v>44423</v>
@@ -4416,11 +3813,11 @@
       </c>
       <c r="O56">
         <f t="shared" si="3"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
-        <v>44423.4861111111</v>
+        <v>44423.486111111109</v>
       </c>
       <c r="Q56">
         <v>681</v>
@@ -4443,7 +3840,7 @@
         <v>29</v>
       </c>
       <c r="F57" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G57">
         <v>234</v>
@@ -4475,11 +3872,11 @@
       </c>
       <c r="O57">
         <f t="shared" si="3"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
-        <v>44423.5347222222</v>
+        <v>44423.534722222219</v>
       </c>
       <c r="Q57">
         <v>891</v>
@@ -4493,7 +3890,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D58">
         <v>234</v>
@@ -4502,7 +3899,7 @@
         <v>29</v>
       </c>
       <c r="F58" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G58">
         <v>237</v>
@@ -4519,11 +3916,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L58">
         <f t="shared" si="5"/>
-        <v>44423.4791666667</v>
+        <v>44423.479166666664</v>
       </c>
       <c r="M58" s="3">
         <v>44423</v>
@@ -4534,11 +3931,11 @@
       </c>
       <c r="O58">
         <f t="shared" si="3"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
-        <v>44423.5763888889</v>
+        <v>44423.576388888891</v>
       </c>
       <c r="Q58">
         <v>884</v>
@@ -4552,7 +3949,7 @@
         <v>29</v>
       </c>
       <c r="C59" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D59">
         <v>234</v>
@@ -4561,7 +3958,7 @@
         <v>29</v>
       </c>
       <c r="F59" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G59">
         <v>236</v>
@@ -4578,11 +3975,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L59">
         <f t="shared" si="5"/>
-        <v>44423.5138888889</v>
+        <v>44423.513888888891</v>
       </c>
       <c r="M59" s="3">
         <v>44423</v>
@@ -4593,11 +3990,11 @@
       </c>
       <c r="O59">
         <f t="shared" si="3"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P59">
         <f t="shared" si="4"/>
-        <v>44423.5868055556</v>
+        <v>44423.586805555555</v>
       </c>
       <c r="Q59">
         <v>812</v>
@@ -4611,7 +4008,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D60">
         <v>234</v>
@@ -4620,7 +4017,7 @@
         <v>29</v>
       </c>
       <c r="F60" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G60">
         <v>237</v>
@@ -4637,11 +4034,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L60">
         <f t="shared" si="5"/>
-        <v>44423.5763888889</v>
+        <v>44423.576388888891</v>
       </c>
       <c r="M60" s="3">
         <v>44423</v>
@@ -4652,11 +4049,11 @@
       </c>
       <c r="O60">
         <f t="shared" si="3"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P60">
         <f t="shared" si="4"/>
-        <v>44423.6458333333</v>
+        <v>44423.645833333336</v>
       </c>
       <c r="Q60">
         <v>854</v>
@@ -4670,7 +4067,7 @@
         <v>29</v>
       </c>
       <c r="C61" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D61">
         <v>237</v>
@@ -4679,7 +4076,7 @@
         <v>29</v>
       </c>
       <c r="F61" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G61">
         <v>234</v>
@@ -4696,11 +4093,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L61">
         <f t="shared" si="5"/>
-        <v>44423.6041666667</v>
+        <v>44423.604166666664</v>
       </c>
       <c r="M61" s="3">
         <v>44423</v>
@@ -4711,11 +4108,11 @@
       </c>
       <c r="O61">
         <f t="shared" si="3"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P61">
         <f t="shared" si="4"/>
-        <v>44423.7013888889</v>
+        <v>44423.701388888891</v>
       </c>
       <c r="Q61">
         <v>885</v>
@@ -4729,7 +4126,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D62">
         <v>236</v>
@@ -4738,7 +4135,7 @@
         <v>29</v>
       </c>
       <c r="F62" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G62">
         <v>234</v>
@@ -4755,11 +4152,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L62">
         <f t="shared" si="5"/>
-        <v>44423.6180555556</v>
+        <v>44423.618055555555</v>
       </c>
       <c r="M62" s="3">
         <v>44423</v>
@@ -4770,11 +4167,11 @@
       </c>
       <c r="O62">
         <f t="shared" si="3"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P62">
         <f t="shared" si="4"/>
-        <v>44423.6944444444</v>
+        <v>44423.694444444445</v>
       </c>
       <c r="Q62">
         <v>813</v>
@@ -4788,7 +4185,7 @@
         <v>29</v>
       </c>
       <c r="C63" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D63">
         <v>237</v>
@@ -4797,7 +4194,7 @@
         <v>29</v>
       </c>
       <c r="F63" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G63">
         <v>234</v>
@@ -4814,11 +4211,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L63">
         <f t="shared" si="5"/>
-        <v>44423.6736111111</v>
+        <v>44423.673611111109</v>
       </c>
       <c r="M63" s="3">
         <v>44423</v>
@@ -4829,11 +4226,11 @@
       </c>
       <c r="O63">
         <f t="shared" si="3"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P63">
         <f t="shared" si="4"/>
-        <v>44423.7465277778</v>
+        <v>44423.746527777781</v>
       </c>
       <c r="Q63">
         <v>855</v>
@@ -4847,7 +4244,7 @@
         <v>29</v>
       </c>
       <c r="C64" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D64">
         <v>234</v>
@@ -4856,7 +4253,7 @@
         <v>29</v>
       </c>
       <c r="F64" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G64">
         <v>237</v>
@@ -4873,11 +4270,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="1"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L64">
         <f t="shared" si="5"/>
-        <v>44423.7291666667</v>
+        <v>44423.729166666664</v>
       </c>
       <c r="M64" s="3">
         <v>44423</v>
@@ -4888,11 +4285,11 @@
       </c>
       <c r="O64">
         <f t="shared" si="3"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P64">
         <f t="shared" si="4"/>
-        <v>44423.8020833333</v>
+        <v>44423.802083333336</v>
       </c>
       <c r="Q64">
         <v>864</v>
@@ -4906,7 +4303,7 @@
         <v>29</v>
       </c>
       <c r="C65" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D65">
         <v>237</v>
@@ -4932,11 +4329,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L65">
         <f t="shared" si="5"/>
-        <v>44423.8333333333</v>
+        <v>44423.833333333336</v>
       </c>
       <c r="M65" s="3">
         <v>44423</v>
@@ -4974,7 +4371,7 @@
         <v>30</v>
       </c>
       <c r="F66" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G66">
         <v>237</v>
@@ -5006,11 +4403,11 @@
       </c>
       <c r="O66">
         <f t="shared" ref="O66:O129" si="10">VALUE(F66)</f>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P66">
         <f t="shared" ref="P66:P129" si="11">N66+O66</f>
-        <v>44424.4097222222</v>
+        <v>44424.409722222219</v>
       </c>
       <c r="Q66">
         <v>890</v>
@@ -5024,7 +4421,7 @@
         <v>30</v>
       </c>
       <c r="C67" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D67">
         <v>234</v>
@@ -5036,7 +4433,7 @@
         <v>0.375</v>
       </c>
       <c r="G67">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H67" t="s">
         <v>10</v>
@@ -5050,11 +4447,11 @@
       </c>
       <c r="K67">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L67">
         <f t="shared" si="8"/>
-        <v>44424.3298611111</v>
+        <v>44424.329861111109</v>
       </c>
       <c r="M67" s="3">
         <v>44424</v>
@@ -5083,7 +4480,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D68">
         <v>234</v>
@@ -5092,7 +4489,7 @@
         <v>30</v>
       </c>
       <c r="F68" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G68">
         <v>235</v>
@@ -5109,11 +4506,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L68">
         <f t="shared" si="8"/>
-        <v>44424.3333333333</v>
+        <v>44424.333333333336</v>
       </c>
       <c r="M68" s="3">
         <v>44424</v>
@@ -5124,11 +4521,11 @@
       </c>
       <c r="O68">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P68">
         <f t="shared" si="11"/>
-        <v>44424.3958333333</v>
+        <v>44424.395833333336</v>
       </c>
       <c r="Q68">
         <v>680</v>
@@ -5142,16 +4539,16 @@
         <v>30</v>
       </c>
       <c r="C69" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D69">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
       </c>
       <c r="F69" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G69">
         <v>234</v>
@@ -5168,11 +4565,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L69">
         <f t="shared" si="8"/>
-        <v>44424.4027777778</v>
+        <v>44424.402777777781</v>
       </c>
       <c r="M69" s="3">
         <v>44424</v>
@@ -5183,11 +4580,11 @@
       </c>
       <c r="O69">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P69">
         <f t="shared" si="11"/>
-        <v>44424.4513888889</v>
+        <v>44424.451388888891</v>
       </c>
       <c r="Q69">
         <v>873</v>
@@ -5201,7 +4598,7 @@
         <v>30</v>
       </c>
       <c r="C70" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D70">
         <v>235</v>
@@ -5210,7 +4607,7 @@
         <v>30</v>
       </c>
       <c r="F70" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G70">
         <v>234</v>
@@ -5227,11 +4624,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L70">
         <f t="shared" si="8"/>
-        <v>44424.4236111111</v>
+        <v>44424.423611111109</v>
       </c>
       <c r="M70" s="3">
         <v>44424</v>
@@ -5242,11 +4639,11 @@
       </c>
       <c r="O70">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P70">
         <f t="shared" si="11"/>
-        <v>44424.4861111111</v>
+        <v>44424.486111111109</v>
       </c>
       <c r="Q70">
         <v>681</v>
@@ -5269,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="F71" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G71">
         <v>234</v>
@@ -5301,11 +4698,11 @@
       </c>
       <c r="O71">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P71">
         <f t="shared" si="11"/>
-        <v>44424.5347222222</v>
+        <v>44424.534722222219</v>
       </c>
       <c r="Q71">
         <v>891</v>
@@ -5319,7 +4716,7 @@
         <v>30</v>
       </c>
       <c r="C72" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D72">
         <v>234</v>
@@ -5328,7 +4725,7 @@
         <v>30</v>
       </c>
       <c r="F72" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G72">
         <v>237</v>
@@ -5345,11 +4742,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="7"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L72">
         <f t="shared" si="8"/>
-        <v>44424.4791666667</v>
+        <v>44424.479166666664</v>
       </c>
       <c r="M72" s="3">
         <v>44424</v>
@@ -5360,11 +4757,11 @@
       </c>
       <c r="O72">
         <f t="shared" si="10"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P72">
         <f t="shared" si="11"/>
-        <v>44424.5763888889</v>
+        <v>44424.576388888891</v>
       </c>
       <c r="Q72">
         <v>884</v>
@@ -5378,7 +4775,7 @@
         <v>30</v>
       </c>
       <c r="C73" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D73">
         <v>234</v>
@@ -5387,7 +4784,7 @@
         <v>30</v>
       </c>
       <c r="F73" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G73">
         <v>236</v>
@@ -5404,11 +4801,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="7"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L73">
         <f t="shared" si="8"/>
-        <v>44424.5138888889</v>
+        <v>44424.513888888891</v>
       </c>
       <c r="M73" s="3">
         <v>44424</v>
@@ -5419,11 +4816,11 @@
       </c>
       <c r="O73">
         <f t="shared" si="10"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P73">
         <f t="shared" si="11"/>
-        <v>44424.5868055556</v>
+        <v>44424.586805555555</v>
       </c>
       <c r="Q73">
         <v>812</v>
@@ -5437,7 +4834,7 @@
         <v>30</v>
       </c>
       <c r="C74" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D74">
         <v>234</v>
@@ -5446,7 +4843,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G74">
         <v>237</v>
@@ -5463,11 +4860,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="7"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L74">
         <f t="shared" si="8"/>
-        <v>44424.5763888889</v>
+        <v>44424.576388888891</v>
       </c>
       <c r="M74" s="3">
         <v>44424</v>
@@ -5478,11 +4875,11 @@
       </c>
       <c r="O74">
         <f t="shared" si="10"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P74">
         <f t="shared" si="11"/>
-        <v>44424.6458333333</v>
+        <v>44424.645833333336</v>
       </c>
       <c r="Q74">
         <v>854</v>
@@ -5496,7 +4893,7 @@
         <v>30</v>
       </c>
       <c r="C75" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D75">
         <v>237</v>
@@ -5505,7 +4902,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G75">
         <v>234</v>
@@ -5522,11 +4919,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="7"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L75">
         <f t="shared" si="8"/>
-        <v>44424.6041666667</v>
+        <v>44424.604166666664</v>
       </c>
       <c r="M75" s="3">
         <v>44424</v>
@@ -5537,11 +4934,11 @@
       </c>
       <c r="O75">
         <f t="shared" si="10"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P75">
         <f t="shared" si="11"/>
-        <v>44424.7013888889</v>
+        <v>44424.701388888891</v>
       </c>
       <c r="Q75">
         <v>885</v>
@@ -5555,7 +4952,7 @@
         <v>30</v>
       </c>
       <c r="C76" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D76">
         <v>236</v>
@@ -5564,7 +4961,7 @@
         <v>30</v>
       </c>
       <c r="F76" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G76">
         <v>234</v>
@@ -5581,11 +4978,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="7"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L76">
         <f t="shared" si="8"/>
-        <v>44424.6180555556</v>
+        <v>44424.618055555555</v>
       </c>
       <c r="M76" s="3">
         <v>44424</v>
@@ -5596,11 +4993,11 @@
       </c>
       <c r="O76">
         <f t="shared" si="10"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P76">
         <f t="shared" si="11"/>
-        <v>44424.6944444444</v>
+        <v>44424.694444444445</v>
       </c>
       <c r="Q76">
         <v>813</v>
@@ -5614,7 +5011,7 @@
         <v>30</v>
       </c>
       <c r="C77" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D77">
         <v>237</v>
@@ -5623,7 +5020,7 @@
         <v>30</v>
       </c>
       <c r="F77" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G77">
         <v>234</v>
@@ -5640,11 +5037,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="7"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L77">
         <f t="shared" si="8"/>
-        <v>44424.6736111111</v>
+        <v>44424.673611111109</v>
       </c>
       <c r="M77" s="3">
         <v>44424</v>
@@ -5655,11 +5052,11 @@
       </c>
       <c r="O77">
         <f t="shared" si="10"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P77">
         <f t="shared" si="11"/>
-        <v>44424.7465277778</v>
+        <v>44424.746527777781</v>
       </c>
       <c r="Q77">
         <v>855</v>
@@ -5673,7 +5070,7 @@
         <v>30</v>
       </c>
       <c r="C78" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D78">
         <v>234</v>
@@ -5682,7 +5079,7 @@
         <v>30</v>
       </c>
       <c r="F78" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G78">
         <v>237</v>
@@ -5699,11 +5096,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="7"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L78">
         <f t="shared" si="8"/>
-        <v>44424.7291666667</v>
+        <v>44424.729166666664</v>
       </c>
       <c r="M78" s="3">
         <v>44424</v>
@@ -5714,11 +5111,11 @@
       </c>
       <c r="O78">
         <f t="shared" si="10"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P78">
         <f t="shared" si="11"/>
-        <v>44424.8020833333</v>
+        <v>44424.802083333336</v>
       </c>
       <c r="Q78">
         <v>864</v>
@@ -5732,7 +5129,7 @@
         <v>30</v>
       </c>
       <c r="C79" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D79">
         <v>237</v>
@@ -5758,11 +5155,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="7"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L79">
         <f t="shared" si="8"/>
-        <v>44424.8333333333</v>
+        <v>44424.833333333336</v>
       </c>
       <c r="M79" s="3">
         <v>44424</v>
@@ -5800,7 +5197,7 @@
         <v>31</v>
       </c>
       <c r="F80" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G80">
         <v>237</v>
@@ -5832,11 +5229,11 @@
       </c>
       <c r="O80">
         <f t="shared" si="10"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P80">
         <f t="shared" si="11"/>
-        <v>44425.4097222222</v>
+        <v>44425.409722222219</v>
       </c>
       <c r="Q80">
         <v>890</v>
@@ -5850,7 +5247,7 @@
         <v>31</v>
       </c>
       <c r="C81" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D81">
         <v>234</v>
@@ -5862,7 +5259,7 @@
         <v>0.375</v>
       </c>
       <c r="G81">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H81" t="s">
         <v>10</v>
@@ -5876,11 +5273,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L81">
         <f t="shared" si="8"/>
-        <v>44425.3298611111</v>
+        <v>44425.329861111109</v>
       </c>
       <c r="M81" s="3">
         <v>44425</v>
@@ -5909,7 +5306,7 @@
         <v>31</v>
       </c>
       <c r="C82" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D82">
         <v>234</v>
@@ -5918,7 +5315,7 @@
         <v>31</v>
       </c>
       <c r="F82" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G82">
         <v>235</v>
@@ -5935,11 +5332,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L82">
         <f t="shared" si="8"/>
-        <v>44425.3333333333</v>
+        <v>44425.333333333336</v>
       </c>
       <c r="M82" s="3">
         <v>44425</v>
@@ -5950,11 +5347,11 @@
       </c>
       <c r="O82">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P82">
         <f t="shared" si="11"/>
-        <v>44425.3958333333</v>
+        <v>44425.395833333336</v>
       </c>
       <c r="Q82">
         <v>680</v>
@@ -5968,16 +5365,16 @@
         <v>31</v>
       </c>
       <c r="C83" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D83">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
         <v>31</v>
       </c>
       <c r="F83" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G83">
         <v>234</v>
@@ -5994,11 +5391,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L83">
         <f t="shared" si="8"/>
-        <v>44425.4027777778</v>
+        <v>44425.402777777781</v>
       </c>
       <c r="M83" s="3">
         <v>44425</v>
@@ -6009,11 +5406,11 @@
       </c>
       <c r="O83">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P83">
         <f t="shared" si="11"/>
-        <v>44425.4513888889</v>
+        <v>44425.451388888891</v>
       </c>
       <c r="Q83">
         <v>873</v>
@@ -6027,7 +5424,7 @@
         <v>31</v>
       </c>
       <c r="C84" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D84">
         <v>235</v>
@@ -6036,7 +5433,7 @@
         <v>31</v>
       </c>
       <c r="F84" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G84">
         <v>234</v>
@@ -6053,11 +5450,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L84">
         <f t="shared" si="8"/>
-        <v>44425.4236111111</v>
+        <v>44425.423611111109</v>
       </c>
       <c r="M84" s="3">
         <v>44425</v>
@@ -6068,11 +5465,11 @@
       </c>
       <c r="O84">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P84">
         <f t="shared" si="11"/>
-        <v>44425.4861111111</v>
+        <v>44425.486111111109</v>
       </c>
       <c r="Q84">
         <v>681</v>
@@ -6095,7 +5492,7 @@
         <v>31</v>
       </c>
       <c r="F85" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G85">
         <v>234</v>
@@ -6127,11 +5524,11 @@
       </c>
       <c r="O85">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P85">
         <f t="shared" si="11"/>
-        <v>44425.5347222222</v>
+        <v>44425.534722222219</v>
       </c>
       <c r="Q85">
         <v>891</v>
@@ -6145,7 +5542,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D86">
         <v>234</v>
@@ -6154,7 +5551,7 @@
         <v>31</v>
       </c>
       <c r="F86" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G86">
         <v>237</v>
@@ -6171,11 +5568,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="7"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L86">
         <f t="shared" si="8"/>
-        <v>44425.4791666667</v>
+        <v>44425.479166666664</v>
       </c>
       <c r="M86" s="3">
         <v>44425</v>
@@ -6186,11 +5583,11 @@
       </c>
       <c r="O86">
         <f t="shared" si="10"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P86">
         <f t="shared" si="11"/>
-        <v>44425.5763888889</v>
+        <v>44425.576388888891</v>
       </c>
       <c r="Q86">
         <v>884</v>
@@ -6204,7 +5601,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D87">
         <v>234</v>
@@ -6213,7 +5610,7 @@
         <v>31</v>
       </c>
       <c r="F87" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G87">
         <v>236</v>
@@ -6230,11 +5627,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="7"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L87">
         <f t="shared" si="8"/>
-        <v>44425.5138888889</v>
+        <v>44425.513888888891</v>
       </c>
       <c r="M87" s="3">
         <v>44425</v>
@@ -6245,11 +5642,11 @@
       </c>
       <c r="O87">
         <f t="shared" si="10"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P87">
         <f t="shared" si="11"/>
-        <v>44425.5868055556</v>
+        <v>44425.586805555555</v>
       </c>
       <c r="Q87">
         <v>812</v>
@@ -6263,7 +5660,7 @@
         <v>31</v>
       </c>
       <c r="C88" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D88">
         <v>234</v>
@@ -6272,7 +5669,7 @@
         <v>31</v>
       </c>
       <c r="F88" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G88">
         <v>237</v>
@@ -6289,11 +5686,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="7"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L88">
         <f t="shared" si="8"/>
-        <v>44425.5763888889</v>
+        <v>44425.576388888891</v>
       </c>
       <c r="M88" s="3">
         <v>44425</v>
@@ -6304,11 +5701,11 @@
       </c>
       <c r="O88">
         <f t="shared" si="10"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P88">
         <f t="shared" si="11"/>
-        <v>44425.6458333333</v>
+        <v>44425.645833333336</v>
       </c>
       <c r="Q88">
         <v>854</v>
@@ -6322,7 +5719,7 @@
         <v>31</v>
       </c>
       <c r="C89" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D89">
         <v>237</v>
@@ -6331,7 +5728,7 @@
         <v>31</v>
       </c>
       <c r="F89" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G89">
         <v>234</v>
@@ -6348,11 +5745,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="7"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L89">
         <f t="shared" si="8"/>
-        <v>44425.6041666667</v>
+        <v>44425.604166666664</v>
       </c>
       <c r="M89" s="3">
         <v>44425</v>
@@ -6363,11 +5760,11 @@
       </c>
       <c r="O89">
         <f t="shared" si="10"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P89">
         <f t="shared" si="11"/>
-        <v>44425.7013888889</v>
+        <v>44425.701388888891</v>
       </c>
       <c r="Q89">
         <v>885</v>
@@ -6381,7 +5778,7 @@
         <v>31</v>
       </c>
       <c r="C90" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D90">
         <v>236</v>
@@ -6390,7 +5787,7 @@
         <v>31</v>
       </c>
       <c r="F90" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G90">
         <v>234</v>
@@ -6407,11 +5804,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="7"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L90">
         <f t="shared" si="8"/>
-        <v>44425.6180555556</v>
+        <v>44425.618055555555</v>
       </c>
       <c r="M90" s="3">
         <v>44425</v>
@@ -6422,11 +5819,11 @@
       </c>
       <c r="O90">
         <f t="shared" si="10"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P90">
         <f t="shared" si="11"/>
-        <v>44425.6944444444</v>
+        <v>44425.694444444445</v>
       </c>
       <c r="Q90">
         <v>813</v>
@@ -6440,7 +5837,7 @@
         <v>31</v>
       </c>
       <c r="C91" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D91">
         <v>237</v>
@@ -6449,7 +5846,7 @@
         <v>31</v>
       </c>
       <c r="F91" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G91">
         <v>234</v>
@@ -6466,11 +5863,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="7"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L91">
         <f t="shared" si="8"/>
-        <v>44425.6736111111</v>
+        <v>44425.673611111109</v>
       </c>
       <c r="M91" s="3">
         <v>44425</v>
@@ -6481,11 +5878,11 @@
       </c>
       <c r="O91">
         <f t="shared" si="10"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P91">
         <f t="shared" si="11"/>
-        <v>44425.7465277778</v>
+        <v>44425.746527777781</v>
       </c>
       <c r="Q91">
         <v>855</v>
@@ -6499,7 +5896,7 @@
         <v>31</v>
       </c>
       <c r="C92" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D92">
         <v>234</v>
@@ -6508,7 +5905,7 @@
         <v>31</v>
       </c>
       <c r="F92" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G92">
         <v>237</v>
@@ -6525,11 +5922,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="7"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L92">
         <f t="shared" si="8"/>
-        <v>44425.7291666667</v>
+        <v>44425.729166666664</v>
       </c>
       <c r="M92" s="3">
         <v>44425</v>
@@ -6540,11 +5937,11 @@
       </c>
       <c r="O92">
         <f t="shared" si="10"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P92">
         <f t="shared" si="11"/>
-        <v>44425.8020833333</v>
+        <v>44425.802083333336</v>
       </c>
       <c r="Q92">
         <v>864</v>
@@ -6558,7 +5955,7 @@
         <v>31</v>
       </c>
       <c r="C93" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D93">
         <v>237</v>
@@ -6584,11 +5981,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="7"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L93">
         <f t="shared" si="8"/>
-        <v>44425.8333333333</v>
+        <v>44425.833333333336</v>
       </c>
       <c r="M93" s="3">
         <v>44425</v>
@@ -6626,7 +6023,7 @@
         <v>32</v>
       </c>
       <c r="F94" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G94">
         <v>237</v>
@@ -6658,11 +6055,11 @@
       </c>
       <c r="O94">
         <f t="shared" si="10"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P94">
         <f t="shared" si="11"/>
-        <v>44426.4097222222</v>
+        <v>44426.409722222219</v>
       </c>
       <c r="Q94">
         <v>890</v>
@@ -6676,7 +6073,7 @@
         <v>32</v>
       </c>
       <c r="C95" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D95">
         <v>234</v>
@@ -6688,7 +6085,7 @@
         <v>0.375</v>
       </c>
       <c r="G95">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
@@ -6702,11 +6099,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L95">
         <f t="shared" si="8"/>
-        <v>44426.3298611111</v>
+        <v>44426.329861111109</v>
       </c>
       <c r="M95" s="3">
         <v>44426</v>
@@ -6735,7 +6132,7 @@
         <v>32</v>
       </c>
       <c r="C96" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D96">
         <v>234</v>
@@ -6744,7 +6141,7 @@
         <v>32</v>
       </c>
       <c r="F96" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G96">
         <v>235</v>
@@ -6761,11 +6158,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L96">
         <f t="shared" si="8"/>
-        <v>44426.3333333333</v>
+        <v>44426.333333333336</v>
       </c>
       <c r="M96" s="3">
         <v>44426</v>
@@ -6776,11 +6173,11 @@
       </c>
       <c r="O96">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P96">
         <f t="shared" si="11"/>
-        <v>44426.3958333333</v>
+        <v>44426.395833333336</v>
       </c>
       <c r="Q96">
         <v>680</v>
@@ -6794,16 +6191,16 @@
         <v>32</v>
       </c>
       <c r="C97" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D97">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E97" t="s">
         <v>32</v>
       </c>
       <c r="F97" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G97">
         <v>234</v>
@@ -6820,11 +6217,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L97">
         <f t="shared" si="8"/>
-        <v>44426.4027777778</v>
+        <v>44426.402777777781</v>
       </c>
       <c r="M97" s="3">
         <v>44426</v>
@@ -6835,11 +6232,11 @@
       </c>
       <c r="O97">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P97">
         <f t="shared" si="11"/>
-        <v>44426.4513888889</v>
+        <v>44426.451388888891</v>
       </c>
       <c r="Q97">
         <v>873</v>
@@ -6853,7 +6250,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D98">
         <v>235</v>
@@ -6862,7 +6259,7 @@
         <v>32</v>
       </c>
       <c r="F98" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G98">
         <v>234</v>
@@ -6879,11 +6276,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L98">
         <f t="shared" si="8"/>
-        <v>44426.4236111111</v>
+        <v>44426.423611111109</v>
       </c>
       <c r="M98" s="3">
         <v>44426</v>
@@ -6894,11 +6291,11 @@
       </c>
       <c r="O98">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P98">
         <f t="shared" si="11"/>
-        <v>44426.4861111111</v>
+        <v>44426.486111111109</v>
       </c>
       <c r="Q98">
         <v>681</v>
@@ -6921,7 +6318,7 @@
         <v>32</v>
       </c>
       <c r="F99" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G99">
         <v>234</v>
@@ -6953,11 +6350,11 @@
       </c>
       <c r="O99">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P99">
         <f t="shared" si="11"/>
-        <v>44426.5347222222</v>
+        <v>44426.534722222219</v>
       </c>
       <c r="Q99">
         <v>891</v>
@@ -6971,7 +6368,7 @@
         <v>32</v>
       </c>
       <c r="C100" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D100">
         <v>234</v>
@@ -6980,7 +6377,7 @@
         <v>32</v>
       </c>
       <c r="F100" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G100">
         <v>237</v>
@@ -6997,11 +6394,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="7"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L100">
         <f t="shared" si="8"/>
-        <v>44426.4791666667</v>
+        <v>44426.479166666664</v>
       </c>
       <c r="M100" s="3">
         <v>44426</v>
@@ -7012,11 +6409,11 @@
       </c>
       <c r="O100">
         <f t="shared" si="10"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P100">
         <f t="shared" si="11"/>
-        <v>44426.5763888889</v>
+        <v>44426.576388888891</v>
       </c>
       <c r="Q100">
         <v>884</v>
@@ -7030,7 +6427,7 @@
         <v>32</v>
       </c>
       <c r="C101" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D101">
         <v>234</v>
@@ -7039,7 +6436,7 @@
         <v>32</v>
       </c>
       <c r="F101" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G101">
         <v>236</v>
@@ -7056,11 +6453,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="7"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L101">
         <f t="shared" si="8"/>
-        <v>44426.5138888889</v>
+        <v>44426.513888888891</v>
       </c>
       <c r="M101" s="3">
         <v>44426</v>
@@ -7071,11 +6468,11 @@
       </c>
       <c r="O101">
         <f t="shared" si="10"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P101">
         <f t="shared" si="11"/>
-        <v>44426.5868055556</v>
+        <v>44426.586805555555</v>
       </c>
       <c r="Q101">
         <v>812</v>
@@ -7089,7 +6486,7 @@
         <v>32</v>
       </c>
       <c r="C102" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D102">
         <v>234</v>
@@ -7098,7 +6495,7 @@
         <v>32</v>
       </c>
       <c r="F102" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G102">
         <v>237</v>
@@ -7115,11 +6512,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="7"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L102">
         <f t="shared" si="8"/>
-        <v>44426.5763888889</v>
+        <v>44426.576388888891</v>
       </c>
       <c r="M102" s="3">
         <v>44426</v>
@@ -7130,11 +6527,11 @@
       </c>
       <c r="O102">
         <f t="shared" si="10"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P102">
         <f t="shared" si="11"/>
-        <v>44426.6458333333</v>
+        <v>44426.645833333336</v>
       </c>
       <c r="Q102">
         <v>854</v>
@@ -7148,7 +6545,7 @@
         <v>32</v>
       </c>
       <c r="C103" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D103">
         <v>237</v>
@@ -7157,7 +6554,7 @@
         <v>32</v>
       </c>
       <c r="F103" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G103">
         <v>234</v>
@@ -7174,11 +6571,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="7"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L103">
         <f t="shared" si="8"/>
-        <v>44426.6041666667</v>
+        <v>44426.604166666664</v>
       </c>
       <c r="M103" s="3">
         <v>44426</v>
@@ -7189,11 +6586,11 @@
       </c>
       <c r="O103">
         <f t="shared" si="10"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P103">
         <f t="shared" si="11"/>
-        <v>44426.7013888889</v>
+        <v>44426.701388888891</v>
       </c>
       <c r="Q103">
         <v>885</v>
@@ -7207,7 +6604,7 @@
         <v>32</v>
       </c>
       <c r="C104" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D104">
         <v>236</v>
@@ -7216,7 +6613,7 @@
         <v>32</v>
       </c>
       <c r="F104" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G104">
         <v>234</v>
@@ -7233,11 +6630,11 @@
       </c>
       <c r="K104">
         <f t="shared" si="7"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L104">
         <f t="shared" si="8"/>
-        <v>44426.6180555556</v>
+        <v>44426.618055555555</v>
       </c>
       <c r="M104" s="3">
         <v>44426</v>
@@ -7248,11 +6645,11 @@
       </c>
       <c r="O104">
         <f t="shared" si="10"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P104">
         <f t="shared" si="11"/>
-        <v>44426.6944444444</v>
+        <v>44426.694444444445</v>
       </c>
       <c r="Q104">
         <v>813</v>
@@ -7266,7 +6663,7 @@
         <v>32</v>
       </c>
       <c r="C105" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D105">
         <v>237</v>
@@ -7275,7 +6672,7 @@
         <v>32</v>
       </c>
       <c r="F105" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G105">
         <v>234</v>
@@ -7292,11 +6689,11 @@
       </c>
       <c r="K105">
         <f t="shared" si="7"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L105">
         <f t="shared" si="8"/>
-        <v>44426.6736111111</v>
+        <v>44426.673611111109</v>
       </c>
       <c r="M105" s="3">
         <v>44426</v>
@@ -7307,11 +6704,11 @@
       </c>
       <c r="O105">
         <f t="shared" si="10"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P105">
         <f t="shared" si="11"/>
-        <v>44426.7465277778</v>
+        <v>44426.746527777781</v>
       </c>
       <c r="Q105">
         <v>855</v>
@@ -7325,7 +6722,7 @@
         <v>32</v>
       </c>
       <c r="C106" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D106">
         <v>234</v>
@@ -7334,7 +6731,7 @@
         <v>32</v>
       </c>
       <c r="F106" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G106">
         <v>237</v>
@@ -7351,11 +6748,11 @@
       </c>
       <c r="K106">
         <f t="shared" si="7"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L106">
         <f t="shared" si="8"/>
-        <v>44426.7291666667</v>
+        <v>44426.729166666664</v>
       </c>
       <c r="M106" s="3">
         <v>44426</v>
@@ -7366,11 +6763,11 @@
       </c>
       <c r="O106">
         <f t="shared" si="10"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P106">
         <f t="shared" si="11"/>
-        <v>44426.8020833333</v>
+        <v>44426.802083333336</v>
       </c>
       <c r="Q106">
         <v>864</v>
@@ -7384,7 +6781,7 @@
         <v>32</v>
       </c>
       <c r="C107" s="2">
-        <v>0.777777777777778</v>
+        <v>0.77777777777777801</v>
       </c>
       <c r="D107">
         <v>234</v>
@@ -7410,11 +6807,11 @@
       </c>
       <c r="K107">
         <f t="shared" si="7"/>
-        <v>0.777777777777778</v>
+        <v>0.77777777777777801</v>
       </c>
       <c r="L107">
         <f t="shared" si="8"/>
-        <v>44426.7777777778</v>
+        <v>44426.777777777781</v>
       </c>
       <c r="M107" s="3">
         <v>44426</v>
@@ -7443,7 +6840,7 @@
         <v>32</v>
       </c>
       <c r="C108" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D108">
         <v>237</v>
@@ -7469,11 +6866,11 @@
       </c>
       <c r="K108">
         <f t="shared" si="7"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L108">
         <f t="shared" si="8"/>
-        <v>44426.8333333333</v>
+        <v>44426.833333333336</v>
       </c>
       <c r="M108" s="3">
         <v>44426</v>
@@ -7502,7 +6899,7 @@
         <v>32</v>
       </c>
       <c r="C109" s="2">
-        <v>0.902777777777778</v>
+        <v>0.90277777777777801</v>
       </c>
       <c r="D109">
         <v>237</v>
@@ -7528,11 +6925,11 @@
       </c>
       <c r="K109">
         <f t="shared" si="7"/>
-        <v>0.902777777777778</v>
+        <v>0.90277777777777801</v>
       </c>
       <c r="L109">
         <f t="shared" si="8"/>
-        <v>44426.9027777778</v>
+        <v>44426.902777777781</v>
       </c>
       <c r="M109" s="3">
         <v>44427</v>
@@ -7570,7 +6967,7 @@
         <v>35</v>
       </c>
       <c r="F110" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G110">
         <v>237</v>
@@ -7602,11 +6999,11 @@
       </c>
       <c r="O110">
         <f t="shared" si="10"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P110">
         <f t="shared" si="11"/>
-        <v>44427.4097222222</v>
+        <v>44427.409722222219</v>
       </c>
       <c r="Q110">
         <v>890</v>
@@ -7620,7 +7017,7 @@
         <v>35</v>
       </c>
       <c r="C111" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D111">
         <v>234</v>
@@ -7632,7 +7029,7 @@
         <v>0.375</v>
       </c>
       <c r="G111">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H111" t="s">
         <v>10</v>
@@ -7646,11 +7043,11 @@
       </c>
       <c r="K111">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L111">
         <f t="shared" si="8"/>
-        <v>44427.3298611111</v>
+        <v>44427.329861111109</v>
       </c>
       <c r="M111" s="3">
         <v>44427</v>
@@ -7679,7 +7076,7 @@
         <v>35</v>
       </c>
       <c r="C112" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D112">
         <v>234</v>
@@ -7688,7 +7085,7 @@
         <v>35</v>
       </c>
       <c r="F112" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G112">
         <v>235</v>
@@ -7705,11 +7102,11 @@
       </c>
       <c r="K112">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L112">
         <f t="shared" si="8"/>
-        <v>44427.3333333333</v>
+        <v>44427.333333333336</v>
       </c>
       <c r="M112" s="3">
         <v>44427</v>
@@ -7720,11 +7117,11 @@
       </c>
       <c r="O112">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P112">
         <f t="shared" si="11"/>
-        <v>44427.3958333333</v>
+        <v>44427.395833333336</v>
       </c>
       <c r="Q112">
         <v>680</v>
@@ -7738,16 +7135,16 @@
         <v>35</v>
       </c>
       <c r="C113" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D113">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E113" t="s">
         <v>35</v>
       </c>
       <c r="F113" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G113">
         <v>234</v>
@@ -7764,11 +7161,11 @@
       </c>
       <c r="K113">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L113">
         <f t="shared" si="8"/>
-        <v>44427.4027777778</v>
+        <v>44427.402777777781</v>
       </c>
       <c r="M113" s="3">
         <v>44427</v>
@@ -7779,11 +7176,11 @@
       </c>
       <c r="O113">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P113">
         <f t="shared" si="11"/>
-        <v>44427.4513888889</v>
+        <v>44427.451388888891</v>
       </c>
       <c r="Q113">
         <v>873</v>
@@ -7797,7 +7194,7 @@
         <v>35</v>
       </c>
       <c r="C114" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D114">
         <v>235</v>
@@ -7806,7 +7203,7 @@
         <v>35</v>
       </c>
       <c r="F114" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G114">
         <v>234</v>
@@ -7823,11 +7220,11 @@
       </c>
       <c r="K114">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L114">
         <f t="shared" si="8"/>
-        <v>44427.4236111111</v>
+        <v>44427.423611111109</v>
       </c>
       <c r="M114" s="3">
         <v>44427</v>
@@ -7838,11 +7235,11 @@
       </c>
       <c r="O114">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P114">
         <f t="shared" si="11"/>
-        <v>44427.4861111111</v>
+        <v>44427.486111111109</v>
       </c>
       <c r="Q114">
         <v>681</v>
@@ -7865,7 +7262,7 @@
         <v>35</v>
       </c>
       <c r="F115" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G115">
         <v>234</v>
@@ -7897,11 +7294,11 @@
       </c>
       <c r="O115">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P115">
         <f t="shared" si="11"/>
-        <v>44427.5347222222</v>
+        <v>44427.534722222219</v>
       </c>
       <c r="Q115">
         <v>891</v>
@@ -7915,7 +7312,7 @@
         <v>35</v>
       </c>
       <c r="C116" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D116">
         <v>234</v>
@@ -7924,7 +7321,7 @@
         <v>35</v>
       </c>
       <c r="F116" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G116">
         <v>237</v>
@@ -7941,11 +7338,11 @@
       </c>
       <c r="K116">
         <f t="shared" si="7"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L116">
         <f t="shared" si="8"/>
-        <v>44427.4791666667</v>
+        <v>44427.479166666664</v>
       </c>
       <c r="M116" s="3">
         <v>44427</v>
@@ -7956,11 +7353,11 @@
       </c>
       <c r="O116">
         <f t="shared" si="10"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P116">
         <f t="shared" si="11"/>
-        <v>44427.5763888889</v>
+        <v>44427.576388888891</v>
       </c>
       <c r="Q116">
         <v>884</v>
@@ -7974,7 +7371,7 @@
         <v>35</v>
       </c>
       <c r="C117" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D117">
         <v>234</v>
@@ -7983,7 +7380,7 @@
         <v>35</v>
       </c>
       <c r="F117" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G117">
         <v>236</v>
@@ -8000,11 +7397,11 @@
       </c>
       <c r="K117">
         <f t="shared" si="7"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L117">
         <f t="shared" si="8"/>
-        <v>44427.5138888889</v>
+        <v>44427.513888888891</v>
       </c>
       <c r="M117" s="3">
         <v>44427</v>
@@ -8015,11 +7412,11 @@
       </c>
       <c r="O117">
         <f t="shared" si="10"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P117">
         <f t="shared" si="11"/>
-        <v>44427.5868055556</v>
+        <v>44427.586805555555</v>
       </c>
       <c r="Q117">
         <v>812</v>
@@ -8033,7 +7430,7 @@
         <v>35</v>
       </c>
       <c r="C118" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D118">
         <v>234</v>
@@ -8042,7 +7439,7 @@
         <v>35</v>
       </c>
       <c r="F118" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G118">
         <v>237</v>
@@ -8059,11 +7456,11 @@
       </c>
       <c r="K118">
         <f t="shared" si="7"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L118">
         <f t="shared" si="8"/>
-        <v>44427.5763888889</v>
+        <v>44427.576388888891</v>
       </c>
       <c r="M118" s="3">
         <v>44427</v>
@@ -8074,11 +7471,11 @@
       </c>
       <c r="O118">
         <f t="shared" si="10"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P118">
         <f t="shared" si="11"/>
-        <v>44427.6458333333</v>
+        <v>44427.645833333336</v>
       </c>
       <c r="Q118">
         <v>854</v>
@@ -8092,7 +7489,7 @@
         <v>35</v>
       </c>
       <c r="C119" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D119">
         <v>237</v>
@@ -8101,7 +7498,7 @@
         <v>35</v>
       </c>
       <c r="F119" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G119">
         <v>234</v>
@@ -8118,11 +7515,11 @@
       </c>
       <c r="K119">
         <f t="shared" si="7"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L119">
         <f t="shared" si="8"/>
-        <v>44427.6041666667</v>
+        <v>44427.604166666664</v>
       </c>
       <c r="M119" s="3">
         <v>44427</v>
@@ -8133,11 +7530,11 @@
       </c>
       <c r="O119">
         <f t="shared" si="10"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P119">
         <f t="shared" si="11"/>
-        <v>44427.7013888889</v>
+        <v>44427.701388888891</v>
       </c>
       <c r="Q119">
         <v>885</v>
@@ -8151,7 +7548,7 @@
         <v>35</v>
       </c>
       <c r="C120" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D120">
         <v>236</v>
@@ -8160,7 +7557,7 @@
         <v>35</v>
       </c>
       <c r="F120" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G120">
         <v>234</v>
@@ -8177,11 +7574,11 @@
       </c>
       <c r="K120">
         <f t="shared" si="7"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L120">
         <f t="shared" si="8"/>
-        <v>44427.6180555556</v>
+        <v>44427.618055555555</v>
       </c>
       <c r="M120" s="3">
         <v>44427</v>
@@ -8192,11 +7589,11 @@
       </c>
       <c r="O120">
         <f t="shared" si="10"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P120">
         <f t="shared" si="11"/>
-        <v>44427.6944444444</v>
+        <v>44427.694444444445</v>
       </c>
       <c r="Q120">
         <v>813</v>
@@ -8210,7 +7607,7 @@
         <v>35</v>
       </c>
       <c r="C121" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D121">
         <v>237</v>
@@ -8219,7 +7616,7 @@
         <v>35</v>
       </c>
       <c r="F121" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G121">
         <v>234</v>
@@ -8236,11 +7633,11 @@
       </c>
       <c r="K121">
         <f t="shared" si="7"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L121">
         <f t="shared" si="8"/>
-        <v>44427.6736111111</v>
+        <v>44427.673611111109</v>
       </c>
       <c r="M121" s="3">
         <v>44427</v>
@@ -8251,11 +7648,11 @@
       </c>
       <c r="O121">
         <f t="shared" si="10"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P121">
         <f t="shared" si="11"/>
-        <v>44427.7465277778</v>
+        <v>44427.746527777781</v>
       </c>
       <c r="Q121">
         <v>855</v>
@@ -8269,7 +7666,7 @@
         <v>35</v>
       </c>
       <c r="C122" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D122">
         <v>234</v>
@@ -8278,7 +7675,7 @@
         <v>35</v>
       </c>
       <c r="F122" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G122">
         <v>237</v>
@@ -8295,11 +7692,11 @@
       </c>
       <c r="K122">
         <f t="shared" si="7"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L122">
         <f t="shared" si="8"/>
-        <v>44427.7291666667</v>
+        <v>44427.729166666664</v>
       </c>
       <c r="M122" s="3">
         <v>44427</v>
@@ -8310,11 +7707,11 @@
       </c>
       <c r="O122">
         <f t="shared" si="10"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P122">
         <f t="shared" si="11"/>
-        <v>44427.8020833333</v>
+        <v>44427.802083333336</v>
       </c>
       <c r="Q122">
         <v>864</v>
@@ -8328,7 +7725,7 @@
         <v>35</v>
       </c>
       <c r="C123" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D123">
         <v>237</v>
@@ -8354,11 +7751,11 @@
       </c>
       <c r="K123">
         <f t="shared" si="7"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L123">
         <f t="shared" si="8"/>
-        <v>44427.8333333333</v>
+        <v>44427.833333333336</v>
       </c>
       <c r="M123" s="3">
         <v>44427</v>
@@ -8396,7 +7793,7 @@
         <v>36</v>
       </c>
       <c r="F124" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G124">
         <v>237</v>
@@ -8428,11 +7825,11 @@
       </c>
       <c r="O124">
         <f t="shared" si="10"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P124">
         <f t="shared" si="11"/>
-        <v>44428.4097222222</v>
+        <v>44428.409722222219</v>
       </c>
       <c r="Q124">
         <v>890</v>
@@ -8446,7 +7843,7 @@
         <v>36</v>
       </c>
       <c r="C125" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D125">
         <v>234</v>
@@ -8458,7 +7855,7 @@
         <v>0.375</v>
       </c>
       <c r="G125">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H125" t="s">
         <v>10</v>
@@ -8472,11 +7869,11 @@
       </c>
       <c r="K125">
         <f t="shared" si="7"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L125">
         <f t="shared" si="8"/>
-        <v>44428.3298611111</v>
+        <v>44428.329861111109</v>
       </c>
       <c r="M125" s="3">
         <v>44428</v>
@@ -8505,7 +7902,7 @@
         <v>36</v>
       </c>
       <c r="C126" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D126">
         <v>234</v>
@@ -8514,7 +7911,7 @@
         <v>36</v>
       </c>
       <c r="F126" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G126">
         <v>235</v>
@@ -8531,11 +7928,11 @@
       </c>
       <c r="K126">
         <f t="shared" si="7"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L126">
         <f t="shared" si="8"/>
-        <v>44428.3333333333</v>
+        <v>44428.333333333336</v>
       </c>
       <c r="M126" s="3">
         <v>44428</v>
@@ -8546,11 +7943,11 @@
       </c>
       <c r="O126">
         <f t="shared" si="10"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P126">
         <f t="shared" si="11"/>
-        <v>44428.3958333333</v>
+        <v>44428.395833333336</v>
       </c>
       <c r="Q126">
         <v>680</v>
@@ -8564,16 +7961,16 @@
         <v>36</v>
       </c>
       <c r="C127" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D127">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
       </c>
       <c r="F127" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G127">
         <v>234</v>
@@ -8590,11 +7987,11 @@
       </c>
       <c r="K127">
         <f t="shared" si="7"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L127">
         <f t="shared" si="8"/>
-        <v>44428.4027777778</v>
+        <v>44428.402777777781</v>
       </c>
       <c r="M127" s="3">
         <v>44428</v>
@@ -8605,11 +8002,11 @@
       </c>
       <c r="O127">
         <f t="shared" si="10"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P127">
         <f t="shared" si="11"/>
-        <v>44428.4513888889</v>
+        <v>44428.451388888891</v>
       </c>
       <c r="Q127">
         <v>873</v>
@@ -8623,7 +8020,7 @@
         <v>36</v>
       </c>
       <c r="C128" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D128">
         <v>235</v>
@@ -8632,7 +8029,7 @@
         <v>36</v>
       </c>
       <c r="F128" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G128">
         <v>234</v>
@@ -8649,11 +8046,11 @@
       </c>
       <c r="K128">
         <f t="shared" si="7"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L128">
         <f t="shared" si="8"/>
-        <v>44428.4236111111</v>
+        <v>44428.423611111109</v>
       </c>
       <c r="M128" s="3">
         <v>44428</v>
@@ -8664,11 +8061,11 @@
       </c>
       <c r="O128">
         <f t="shared" si="10"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P128">
         <f t="shared" si="11"/>
-        <v>44428.4861111111</v>
+        <v>44428.486111111109</v>
       </c>
       <c r="Q128">
         <v>681</v>
@@ -8691,7 +8088,7 @@
         <v>36</v>
       </c>
       <c r="F129" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G129">
         <v>234</v>
@@ -8723,11 +8120,11 @@
       </c>
       <c r="O129">
         <f t="shared" si="10"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P129">
         <f t="shared" si="11"/>
-        <v>44428.5347222222</v>
+        <v>44428.534722222219</v>
       </c>
       <c r="Q129">
         <v>891</v>
@@ -8741,7 +8138,7 @@
         <v>36</v>
       </c>
       <c r="C130" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D130">
         <v>234</v>
@@ -8750,7 +8147,7 @@
         <v>36</v>
       </c>
       <c r="F130" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G130">
         <v>237</v>
@@ -8767,11 +8164,11 @@
       </c>
       <c r="K130">
         <f t="shared" ref="K130:K193" si="13">VALUE(C130)</f>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L130">
         <f t="shared" ref="L130:L193" si="14">J130+K130</f>
-        <v>44428.4791666667</v>
+        <v>44428.479166666664</v>
       </c>
       <c r="M130" s="3">
         <v>44428</v>
@@ -8782,11 +8179,11 @@
       </c>
       <c r="O130">
         <f t="shared" ref="O130:O193" si="16">VALUE(F130)</f>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P130">
         <f t="shared" ref="P130:P193" si="17">N130+O130</f>
-        <v>44428.5763888889</v>
+        <v>44428.576388888891</v>
       </c>
       <c r="Q130">
         <v>884</v>
@@ -8800,7 +8197,7 @@
         <v>36</v>
       </c>
       <c r="C131" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D131">
         <v>234</v>
@@ -8809,7 +8206,7 @@
         <v>36</v>
       </c>
       <c r="F131" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G131">
         <v>236</v>
@@ -8826,11 +8223,11 @@
       </c>
       <c r="K131">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L131">
         <f t="shared" si="14"/>
-        <v>44428.5138888889</v>
+        <v>44428.513888888891</v>
       </c>
       <c r="M131" s="3">
         <v>44428</v>
@@ -8841,11 +8238,11 @@
       </c>
       <c r="O131">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P131">
         <f t="shared" si="17"/>
-        <v>44428.5868055556</v>
+        <v>44428.586805555555</v>
       </c>
       <c r="Q131">
         <v>812</v>
@@ -8859,7 +8256,7 @@
         <v>36</v>
       </c>
       <c r="C132" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D132">
         <v>234</v>
@@ -8868,7 +8265,7 @@
         <v>36</v>
       </c>
       <c r="F132" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G132">
         <v>237</v>
@@ -8885,11 +8282,11 @@
       </c>
       <c r="K132">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L132">
         <f t="shared" si="14"/>
-        <v>44428.5763888889</v>
+        <v>44428.576388888891</v>
       </c>
       <c r="M132" s="3">
         <v>44428</v>
@@ -8900,11 +8297,11 @@
       </c>
       <c r="O132">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P132">
         <f t="shared" si="17"/>
-        <v>44428.6458333333</v>
+        <v>44428.645833333336</v>
       </c>
       <c r="Q132">
         <v>854</v>
@@ -8918,7 +8315,7 @@
         <v>36</v>
       </c>
       <c r="C133" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D133">
         <v>237</v>
@@ -8927,7 +8324,7 @@
         <v>36</v>
       </c>
       <c r="F133" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G133">
         <v>234</v>
@@ -8944,11 +8341,11 @@
       </c>
       <c r="K133">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L133">
         <f t="shared" si="14"/>
-        <v>44428.6041666667</v>
+        <v>44428.604166666664</v>
       </c>
       <c r="M133" s="3">
         <v>44428</v>
@@ -8959,11 +8356,11 @@
       </c>
       <c r="O133">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P133">
         <f t="shared" si="17"/>
-        <v>44428.7013888889</v>
+        <v>44428.701388888891</v>
       </c>
       <c r="Q133">
         <v>885</v>
@@ -8977,7 +8374,7 @@
         <v>36</v>
       </c>
       <c r="C134" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D134">
         <v>236</v>
@@ -8986,7 +8383,7 @@
         <v>36</v>
       </c>
       <c r="F134" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G134">
         <v>234</v>
@@ -9003,11 +8400,11 @@
       </c>
       <c r="K134">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L134">
         <f t="shared" si="14"/>
-        <v>44428.6180555556</v>
+        <v>44428.618055555555</v>
       </c>
       <c r="M134" s="3">
         <v>44428</v>
@@ -9018,11 +8415,11 @@
       </c>
       <c r="O134">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P134">
         <f t="shared" si="17"/>
-        <v>44428.6944444444</v>
+        <v>44428.694444444445</v>
       </c>
       <c r="Q134">
         <v>813</v>
@@ -9036,7 +8433,7 @@
         <v>36</v>
       </c>
       <c r="C135" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D135">
         <v>237</v>
@@ -9045,7 +8442,7 @@
         <v>36</v>
       </c>
       <c r="F135" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G135">
         <v>234</v>
@@ -9062,11 +8459,11 @@
       </c>
       <c r="K135">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L135">
         <f t="shared" si="14"/>
-        <v>44428.6736111111</v>
+        <v>44428.673611111109</v>
       </c>
       <c r="M135" s="3">
         <v>44428</v>
@@ -9077,11 +8474,11 @@
       </c>
       <c r="O135">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P135">
         <f t="shared" si="17"/>
-        <v>44428.7465277778</v>
+        <v>44428.746527777781</v>
       </c>
       <c r="Q135">
         <v>855</v>
@@ -9095,7 +8492,7 @@
         <v>36</v>
       </c>
       <c r="C136" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D136">
         <v>234</v>
@@ -9104,7 +8501,7 @@
         <v>36</v>
       </c>
       <c r="F136" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G136">
         <v>237</v>
@@ -9121,11 +8518,11 @@
       </c>
       <c r="K136">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L136">
         <f t="shared" si="14"/>
-        <v>44428.7291666667</v>
+        <v>44428.729166666664</v>
       </c>
       <c r="M136" s="3">
         <v>44428</v>
@@ -9136,11 +8533,11 @@
       </c>
       <c r="O136">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P136">
         <f t="shared" si="17"/>
-        <v>44428.8020833333</v>
+        <v>44428.802083333336</v>
       </c>
       <c r="Q136">
         <v>864</v>
@@ -9154,7 +8551,7 @@
         <v>36</v>
       </c>
       <c r="C137" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D137">
         <v>237</v>
@@ -9180,11 +8577,11 @@
       </c>
       <c r="K137">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L137">
         <f t="shared" si="14"/>
-        <v>44428.8333333333</v>
+        <v>44428.833333333336</v>
       </c>
       <c r="M137" s="3">
         <v>44428</v>
@@ -9222,7 +8619,7 @@
         <v>37</v>
       </c>
       <c r="F138" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G138">
         <v>237</v>
@@ -9254,11 +8651,11 @@
       </c>
       <c r="O138">
         <f t="shared" si="16"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P138">
         <f t="shared" si="17"/>
-        <v>44429.4097222222</v>
+        <v>44429.409722222219</v>
       </c>
       <c r="Q138">
         <v>890</v>
@@ -9272,7 +8669,7 @@
         <v>37</v>
       </c>
       <c r="C139" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D139">
         <v>234</v>
@@ -9284,7 +8681,7 @@
         <v>0.375</v>
       </c>
       <c r="G139">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H139" t="s">
         <v>10</v>
@@ -9298,11 +8695,11 @@
       </c>
       <c r="K139">
         <f t="shared" si="13"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L139">
         <f t="shared" si="14"/>
-        <v>44429.3298611111</v>
+        <v>44429.329861111109</v>
       </c>
       <c r="M139" s="3">
         <v>44429</v>
@@ -9331,7 +8728,7 @@
         <v>37</v>
       </c>
       <c r="C140" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D140">
         <v>234</v>
@@ -9340,7 +8737,7 @@
         <v>37</v>
       </c>
       <c r="F140" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G140">
         <v>235</v>
@@ -9357,11 +8754,11 @@
       </c>
       <c r="K140">
         <f t="shared" si="13"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L140">
         <f t="shared" si="14"/>
-        <v>44429.3333333333</v>
+        <v>44429.333333333336</v>
       </c>
       <c r="M140" s="3">
         <v>44429</v>
@@ -9372,11 +8769,11 @@
       </c>
       <c r="O140">
         <f t="shared" si="16"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P140">
         <f t="shared" si="17"/>
-        <v>44429.3958333333</v>
+        <v>44429.395833333336</v>
       </c>
       <c r="Q140">
         <v>680</v>
@@ -9390,16 +8787,16 @@
         <v>37</v>
       </c>
       <c r="C141" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D141">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E141" t="s">
         <v>37</v>
       </c>
       <c r="F141" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G141">
         <v>234</v>
@@ -9416,11 +8813,11 @@
       </c>
       <c r="K141">
         <f t="shared" si="13"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L141">
         <f t="shared" si="14"/>
-        <v>44429.4027777778</v>
+        <v>44429.402777777781</v>
       </c>
       <c r="M141" s="3">
         <v>44429</v>
@@ -9431,11 +8828,11 @@
       </c>
       <c r="O141">
         <f t="shared" si="16"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P141">
         <f t="shared" si="17"/>
-        <v>44429.4513888889</v>
+        <v>44429.451388888891</v>
       </c>
       <c r="Q141">
         <v>873</v>
@@ -9449,7 +8846,7 @@
         <v>37</v>
       </c>
       <c r="C142" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D142">
         <v>235</v>
@@ -9458,7 +8855,7 @@
         <v>37</v>
       </c>
       <c r="F142" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G142">
         <v>234</v>
@@ -9475,11 +8872,11 @@
       </c>
       <c r="K142">
         <f t="shared" si="13"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L142">
         <f t="shared" si="14"/>
-        <v>44429.4236111111</v>
+        <v>44429.423611111109</v>
       </c>
       <c r="M142" s="3">
         <v>44429</v>
@@ -9490,11 +8887,11 @@
       </c>
       <c r="O142">
         <f t="shared" si="16"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P142">
         <f t="shared" si="17"/>
-        <v>44429.4861111111</v>
+        <v>44429.486111111109</v>
       </c>
       <c r="Q142">
         <v>681</v>
@@ -9517,7 +8914,7 @@
         <v>37</v>
       </c>
       <c r="F143" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G143">
         <v>234</v>
@@ -9549,11 +8946,11 @@
       </c>
       <c r="O143">
         <f t="shared" si="16"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P143">
         <f t="shared" si="17"/>
-        <v>44429.5347222222</v>
+        <v>44429.534722222219</v>
       </c>
       <c r="Q143">
         <v>891</v>
@@ -9567,7 +8964,7 @@
         <v>37</v>
       </c>
       <c r="C144" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D144">
         <v>234</v>
@@ -9576,7 +8973,7 @@
         <v>37</v>
       </c>
       <c r="F144" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G144">
         <v>237</v>
@@ -9593,11 +8990,11 @@
       </c>
       <c r="K144">
         <f t="shared" si="13"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L144">
         <f t="shared" si="14"/>
-        <v>44429.4791666667</v>
+        <v>44429.479166666664</v>
       </c>
       <c r="M144" s="3">
         <v>44429</v>
@@ -9608,11 +9005,11 @@
       </c>
       <c r="O144">
         <f t="shared" si="16"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P144">
         <f t="shared" si="17"/>
-        <v>44429.5763888889</v>
+        <v>44429.576388888891</v>
       </c>
       <c r="Q144">
         <v>884</v>
@@ -9626,7 +9023,7 @@
         <v>37</v>
       </c>
       <c r="C145" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D145">
         <v>234</v>
@@ -9635,7 +9032,7 @@
         <v>37</v>
       </c>
       <c r="F145" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G145">
         <v>236</v>
@@ -9652,11 +9049,11 @@
       </c>
       <c r="K145">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L145">
         <f t="shared" si="14"/>
-        <v>44429.5138888889</v>
+        <v>44429.513888888891</v>
       </c>
       <c r="M145" s="3">
         <v>44429</v>
@@ -9667,11 +9064,11 @@
       </c>
       <c r="O145">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P145">
         <f t="shared" si="17"/>
-        <v>44429.5868055556</v>
+        <v>44429.586805555555</v>
       </c>
       <c r="Q145">
         <v>812</v>
@@ -9685,7 +9082,7 @@
         <v>37</v>
       </c>
       <c r="C146" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D146">
         <v>234</v>
@@ -9694,7 +9091,7 @@
         <v>37</v>
       </c>
       <c r="F146" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G146">
         <v>237</v>
@@ -9711,11 +9108,11 @@
       </c>
       <c r="K146">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L146">
         <f t="shared" si="14"/>
-        <v>44429.5763888889</v>
+        <v>44429.576388888891</v>
       </c>
       <c r="M146" s="3">
         <v>44429</v>
@@ -9726,11 +9123,11 @@
       </c>
       <c r="O146">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P146">
         <f t="shared" si="17"/>
-        <v>44429.6458333333</v>
+        <v>44429.645833333336</v>
       </c>
       <c r="Q146">
         <v>854</v>
@@ -9744,7 +9141,7 @@
         <v>37</v>
       </c>
       <c r="C147" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D147">
         <v>237</v>
@@ -9753,7 +9150,7 @@
         <v>37</v>
       </c>
       <c r="F147" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G147">
         <v>234</v>
@@ -9770,11 +9167,11 @@
       </c>
       <c r="K147">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L147">
         <f t="shared" si="14"/>
-        <v>44429.6041666667</v>
+        <v>44429.604166666664</v>
       </c>
       <c r="M147" s="3">
         <v>44429</v>
@@ -9785,11 +9182,11 @@
       </c>
       <c r="O147">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P147">
         <f t="shared" si="17"/>
-        <v>44429.7013888889</v>
+        <v>44429.701388888891</v>
       </c>
       <c r="Q147">
         <v>885</v>
@@ -9803,7 +9200,7 @@
         <v>37</v>
       </c>
       <c r="C148" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D148">
         <v>236</v>
@@ -9812,7 +9209,7 @@
         <v>37</v>
       </c>
       <c r="F148" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G148">
         <v>234</v>
@@ -9829,11 +9226,11 @@
       </c>
       <c r="K148">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L148">
         <f t="shared" si="14"/>
-        <v>44429.6180555556</v>
+        <v>44429.618055555555</v>
       </c>
       <c r="M148" s="3">
         <v>44429</v>
@@ -9844,11 +9241,11 @@
       </c>
       <c r="O148">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P148">
         <f t="shared" si="17"/>
-        <v>44429.6944444444</v>
+        <v>44429.694444444445</v>
       </c>
       <c r="Q148">
         <v>813</v>
@@ -9862,7 +9259,7 @@
         <v>37</v>
       </c>
       <c r="C149" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D149">
         <v>237</v>
@@ -9871,7 +9268,7 @@
         <v>37</v>
       </c>
       <c r="F149" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G149">
         <v>234</v>
@@ -9888,11 +9285,11 @@
       </c>
       <c r="K149">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L149">
         <f t="shared" si="14"/>
-        <v>44429.6736111111</v>
+        <v>44429.673611111109</v>
       </c>
       <c r="M149" s="3">
         <v>44429</v>
@@ -9903,11 +9300,11 @@
       </c>
       <c r="O149">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P149">
         <f t="shared" si="17"/>
-        <v>44429.7465277778</v>
+        <v>44429.746527777781</v>
       </c>
       <c r="Q149">
         <v>855</v>
@@ -9921,7 +9318,7 @@
         <v>37</v>
       </c>
       <c r="C150" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D150">
         <v>234</v>
@@ -9930,7 +9327,7 @@
         <v>37</v>
       </c>
       <c r="F150" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G150">
         <v>237</v>
@@ -9947,11 +9344,11 @@
       </c>
       <c r="K150">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L150">
         <f t="shared" si="14"/>
-        <v>44429.7291666667</v>
+        <v>44429.729166666664</v>
       </c>
       <c r="M150" s="3">
         <v>44429</v>
@@ -9962,11 +9359,11 @@
       </c>
       <c r="O150">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P150">
         <f t="shared" si="17"/>
-        <v>44429.8020833333</v>
+        <v>44429.802083333336</v>
       </c>
       <c r="Q150">
         <v>864</v>
@@ -9980,7 +9377,7 @@
         <v>37</v>
       </c>
       <c r="C151" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D151">
         <v>237</v>
@@ -10006,11 +9403,11 @@
       </c>
       <c r="K151">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L151">
         <f t="shared" si="14"/>
-        <v>44429.8333333333</v>
+        <v>44429.833333333336</v>
       </c>
       <c r="M151" s="3">
         <v>44429</v>
@@ -10048,7 +9445,7 @@
         <v>38</v>
       </c>
       <c r="F152" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G152">
         <v>237</v>
@@ -10080,11 +9477,11 @@
       </c>
       <c r="O152">
         <f t="shared" si="16"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P152">
         <f t="shared" si="17"/>
-        <v>44430.4097222222</v>
+        <v>44430.409722222219</v>
       </c>
       <c r="Q152">
         <v>890</v>
@@ -10098,7 +9495,7 @@
         <v>38</v>
       </c>
       <c r="C153" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D153">
         <v>234</v>
@@ -10110,7 +9507,7 @@
         <v>0.375</v>
       </c>
       <c r="G153">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H153" t="s">
         <v>10</v>
@@ -10124,11 +9521,11 @@
       </c>
       <c r="K153">
         <f t="shared" si="13"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L153">
         <f t="shared" si="14"/>
-        <v>44430.3298611111</v>
+        <v>44430.329861111109</v>
       </c>
       <c r="M153" s="3">
         <v>44430</v>
@@ -10157,7 +9554,7 @@
         <v>38</v>
       </c>
       <c r="C154" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D154">
         <v>234</v>
@@ -10166,7 +9563,7 @@
         <v>38</v>
       </c>
       <c r="F154" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G154">
         <v>235</v>
@@ -10183,11 +9580,11 @@
       </c>
       <c r="K154">
         <f t="shared" si="13"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L154">
         <f t="shared" si="14"/>
-        <v>44430.3333333333</v>
+        <v>44430.333333333336</v>
       </c>
       <c r="M154" s="3">
         <v>44430</v>
@@ -10198,11 +9595,11 @@
       </c>
       <c r="O154">
         <f t="shared" si="16"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P154">
         <f t="shared" si="17"/>
-        <v>44430.3958333333</v>
+        <v>44430.395833333336</v>
       </c>
       <c r="Q154">
         <v>680</v>
@@ -10216,16 +9613,16 @@
         <v>38</v>
       </c>
       <c r="C155" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D155">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
       </c>
       <c r="F155" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G155">
         <v>234</v>
@@ -10242,11 +9639,11 @@
       </c>
       <c r="K155">
         <f t="shared" si="13"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L155">
         <f t="shared" si="14"/>
-        <v>44430.4027777778</v>
+        <v>44430.402777777781</v>
       </c>
       <c r="M155" s="3">
         <v>44430</v>
@@ -10257,11 +9654,11 @@
       </c>
       <c r="O155">
         <f t="shared" si="16"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P155">
         <f t="shared" si="17"/>
-        <v>44430.4513888889</v>
+        <v>44430.451388888891</v>
       </c>
       <c r="Q155">
         <v>873</v>
@@ -10275,7 +9672,7 @@
         <v>38</v>
       </c>
       <c r="C156" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D156">
         <v>235</v>
@@ -10284,7 +9681,7 @@
         <v>38</v>
       </c>
       <c r="F156" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G156">
         <v>234</v>
@@ -10301,11 +9698,11 @@
       </c>
       <c r="K156">
         <f t="shared" si="13"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L156">
         <f t="shared" si="14"/>
-        <v>44430.4236111111</v>
+        <v>44430.423611111109</v>
       </c>
       <c r="M156" s="3">
         <v>44430</v>
@@ -10316,11 +9713,11 @@
       </c>
       <c r="O156">
         <f t="shared" si="16"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P156">
         <f t="shared" si="17"/>
-        <v>44430.4861111111</v>
+        <v>44430.486111111109</v>
       </c>
       <c r="Q156">
         <v>681</v>
@@ -10343,7 +9740,7 @@
         <v>38</v>
       </c>
       <c r="F157" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G157">
         <v>234</v>
@@ -10375,11 +9772,11 @@
       </c>
       <c r="O157">
         <f t="shared" si="16"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P157">
         <f t="shared" si="17"/>
-        <v>44430.5347222222</v>
+        <v>44430.534722222219</v>
       </c>
       <c r="Q157">
         <v>891</v>
@@ -10393,7 +9790,7 @@
         <v>38</v>
       </c>
       <c r="C158" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D158">
         <v>234</v>
@@ -10402,7 +9799,7 @@
         <v>38</v>
       </c>
       <c r="F158" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G158">
         <v>237</v>
@@ -10419,11 +9816,11 @@
       </c>
       <c r="K158">
         <f t="shared" si="13"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L158">
         <f t="shared" si="14"/>
-        <v>44430.4791666667</v>
+        <v>44430.479166666664</v>
       </c>
       <c r="M158" s="3">
         <v>44430</v>
@@ -10434,11 +9831,11 @@
       </c>
       <c r="O158">
         <f t="shared" si="16"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P158">
         <f t="shared" si="17"/>
-        <v>44430.5763888889</v>
+        <v>44430.576388888891</v>
       </c>
       <c r="Q158">
         <v>884</v>
@@ -10452,7 +9849,7 @@
         <v>38</v>
       </c>
       <c r="C159" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D159">
         <v>234</v>
@@ -10461,7 +9858,7 @@
         <v>38</v>
       </c>
       <c r="F159" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G159">
         <v>236</v>
@@ -10478,11 +9875,11 @@
       </c>
       <c r="K159">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L159">
         <f t="shared" si="14"/>
-        <v>44430.5138888889</v>
+        <v>44430.513888888891</v>
       </c>
       <c r="M159" s="3">
         <v>44430</v>
@@ -10493,11 +9890,11 @@
       </c>
       <c r="O159">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P159">
         <f t="shared" si="17"/>
-        <v>44430.5868055556</v>
+        <v>44430.586805555555</v>
       </c>
       <c r="Q159">
         <v>812</v>
@@ -10511,7 +9908,7 @@
         <v>38</v>
       </c>
       <c r="C160" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D160">
         <v>234</v>
@@ -10520,7 +9917,7 @@
         <v>38</v>
       </c>
       <c r="F160" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G160">
         <v>237</v>
@@ -10537,11 +9934,11 @@
       </c>
       <c r="K160">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L160">
         <f t="shared" si="14"/>
-        <v>44430.5763888889</v>
+        <v>44430.576388888891</v>
       </c>
       <c r="M160" s="3">
         <v>44430</v>
@@ -10552,11 +9949,11 @@
       </c>
       <c r="O160">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P160">
         <f t="shared" si="17"/>
-        <v>44430.6458333333</v>
+        <v>44430.645833333336</v>
       </c>
       <c r="Q160">
         <v>854</v>
@@ -10570,7 +9967,7 @@
         <v>38</v>
       </c>
       <c r="C161" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D161">
         <v>237</v>
@@ -10579,7 +9976,7 @@
         <v>38</v>
       </c>
       <c r="F161" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G161">
         <v>234</v>
@@ -10596,11 +9993,11 @@
       </c>
       <c r="K161">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L161">
         <f t="shared" si="14"/>
-        <v>44430.6041666667</v>
+        <v>44430.604166666664</v>
       </c>
       <c r="M161" s="3">
         <v>44430</v>
@@ -10611,11 +10008,11 @@
       </c>
       <c r="O161">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P161">
         <f t="shared" si="17"/>
-        <v>44430.7013888889</v>
+        <v>44430.701388888891</v>
       </c>
       <c r="Q161">
         <v>885</v>
@@ -10629,7 +10026,7 @@
         <v>38</v>
       </c>
       <c r="C162" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D162">
         <v>236</v>
@@ -10638,7 +10035,7 @@
         <v>38</v>
       </c>
       <c r="F162" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G162">
         <v>234</v>
@@ -10655,11 +10052,11 @@
       </c>
       <c r="K162">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L162">
         <f t="shared" si="14"/>
-        <v>44430.6180555556</v>
+        <v>44430.618055555555</v>
       </c>
       <c r="M162" s="3">
         <v>44430</v>
@@ -10670,11 +10067,11 @@
       </c>
       <c r="O162">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P162">
         <f t="shared" si="17"/>
-        <v>44430.6944444444</v>
+        <v>44430.694444444445</v>
       </c>
       <c r="Q162">
         <v>813</v>
@@ -10688,7 +10085,7 @@
         <v>38</v>
       </c>
       <c r="C163" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D163">
         <v>237</v>
@@ -10697,7 +10094,7 @@
         <v>38</v>
       </c>
       <c r="F163" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G163">
         <v>234</v>
@@ -10714,11 +10111,11 @@
       </c>
       <c r="K163">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L163">
         <f t="shared" si="14"/>
-        <v>44430.6736111111</v>
+        <v>44430.673611111109</v>
       </c>
       <c r="M163" s="3">
         <v>44430</v>
@@ -10729,11 +10126,11 @@
       </c>
       <c r="O163">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P163">
         <f t="shared" si="17"/>
-        <v>44430.7465277778</v>
+        <v>44430.746527777781</v>
       </c>
       <c r="Q163">
         <v>855</v>
@@ -10747,7 +10144,7 @@
         <v>38</v>
       </c>
       <c r="C164" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D164">
         <v>234</v>
@@ -10756,7 +10153,7 @@
         <v>38</v>
       </c>
       <c r="F164" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G164">
         <v>237</v>
@@ -10773,11 +10170,11 @@
       </c>
       <c r="K164">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L164">
         <f t="shared" si="14"/>
-        <v>44430.7291666667</v>
+        <v>44430.729166666664</v>
       </c>
       <c r="M164" s="3">
         <v>44430</v>
@@ -10788,11 +10185,11 @@
       </c>
       <c r="O164">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P164">
         <f t="shared" si="17"/>
-        <v>44430.8020833333</v>
+        <v>44430.802083333336</v>
       </c>
       <c r="Q164">
         <v>864</v>
@@ -10806,7 +10203,7 @@
         <v>38</v>
       </c>
       <c r="C165" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D165">
         <v>237</v>
@@ -10832,11 +10229,11 @@
       </c>
       <c r="K165">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L165">
         <f t="shared" si="14"/>
-        <v>44430.8333333333</v>
+        <v>44430.833333333336</v>
       </c>
       <c r="M165" s="3">
         <v>44430</v>
@@ -10874,7 +10271,7 @@
         <v>39</v>
       </c>
       <c r="F166" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G166">
         <v>237</v>
@@ -10906,11 +10303,11 @@
       </c>
       <c r="O166">
         <f t="shared" si="16"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P166">
         <f t="shared" si="17"/>
-        <v>44431.4097222222</v>
+        <v>44431.409722222219</v>
       </c>
       <c r="Q166">
         <v>890</v>
@@ -10924,7 +10321,7 @@
         <v>39</v>
       </c>
       <c r="C167" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D167">
         <v>234</v>
@@ -10936,7 +10333,7 @@
         <v>0.375</v>
       </c>
       <c r="G167">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H167" t="s">
         <v>10</v>
@@ -10950,11 +10347,11 @@
       </c>
       <c r="K167">
         <f t="shared" si="13"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L167">
         <f t="shared" si="14"/>
-        <v>44431.3298611111</v>
+        <v>44431.329861111109</v>
       </c>
       <c r="M167" s="3">
         <v>44431</v>
@@ -10983,7 +10380,7 @@
         <v>39</v>
       </c>
       <c r="C168" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D168">
         <v>234</v>
@@ -10992,7 +10389,7 @@
         <v>39</v>
       </c>
       <c r="F168" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G168">
         <v>235</v>
@@ -11009,11 +10406,11 @@
       </c>
       <c r="K168">
         <f t="shared" si="13"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L168">
         <f t="shared" si="14"/>
-        <v>44431.3333333333</v>
+        <v>44431.333333333336</v>
       </c>
       <c r="M168" s="3">
         <v>44431</v>
@@ -11024,11 +10421,11 @@
       </c>
       <c r="O168">
         <f t="shared" si="16"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P168">
         <f t="shared" si="17"/>
-        <v>44431.3958333333</v>
+        <v>44431.395833333336</v>
       </c>
       <c r="Q168">
         <v>680</v>
@@ -11042,16 +10439,16 @@
         <v>39</v>
       </c>
       <c r="C169" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D169">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E169" t="s">
         <v>39</v>
       </c>
       <c r="F169" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G169">
         <v>234</v>
@@ -11068,11 +10465,11 @@
       </c>
       <c r="K169">
         <f t="shared" si="13"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L169">
         <f t="shared" si="14"/>
-        <v>44431.4027777778</v>
+        <v>44431.402777777781</v>
       </c>
       <c r="M169" s="3">
         <v>44431</v>
@@ -11083,11 +10480,11 @@
       </c>
       <c r="O169">
         <f t="shared" si="16"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P169">
         <f t="shared" si="17"/>
-        <v>44431.4513888889</v>
+        <v>44431.451388888891</v>
       </c>
       <c r="Q169">
         <v>873</v>
@@ -11101,7 +10498,7 @@
         <v>39</v>
       </c>
       <c r="C170" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D170">
         <v>235</v>
@@ -11110,7 +10507,7 @@
         <v>39</v>
       </c>
       <c r="F170" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G170">
         <v>234</v>
@@ -11127,11 +10524,11 @@
       </c>
       <c r="K170">
         <f t="shared" si="13"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L170">
         <f t="shared" si="14"/>
-        <v>44431.4236111111</v>
+        <v>44431.423611111109</v>
       </c>
       <c r="M170" s="3">
         <v>44431</v>
@@ -11142,11 +10539,11 @@
       </c>
       <c r="O170">
         <f t="shared" si="16"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P170">
         <f t="shared" si="17"/>
-        <v>44431.4861111111</v>
+        <v>44431.486111111109</v>
       </c>
       <c r="Q170">
         <v>681</v>
@@ -11169,7 +10566,7 @@
         <v>39</v>
       </c>
       <c r="F171" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G171">
         <v>234</v>
@@ -11201,11 +10598,11 @@
       </c>
       <c r="O171">
         <f t="shared" si="16"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P171">
         <f t="shared" si="17"/>
-        <v>44431.5347222222</v>
+        <v>44431.534722222219</v>
       </c>
       <c r="Q171">
         <v>891</v>
@@ -11219,7 +10616,7 @@
         <v>39</v>
       </c>
       <c r="C172" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D172">
         <v>234</v>
@@ -11228,7 +10625,7 @@
         <v>39</v>
       </c>
       <c r="F172" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G172">
         <v>237</v>
@@ -11245,11 +10642,11 @@
       </c>
       <c r="K172">
         <f t="shared" si="13"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L172">
         <f t="shared" si="14"/>
-        <v>44431.4791666667</v>
+        <v>44431.479166666664</v>
       </c>
       <c r="M172" s="3">
         <v>44431</v>
@@ -11260,11 +10657,11 @@
       </c>
       <c r="O172">
         <f t="shared" si="16"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P172">
         <f t="shared" si="17"/>
-        <v>44431.5763888889</v>
+        <v>44431.576388888891</v>
       </c>
       <c r="Q172">
         <v>884</v>
@@ -11278,7 +10675,7 @@
         <v>39</v>
       </c>
       <c r="C173" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D173">
         <v>234</v>
@@ -11287,7 +10684,7 @@
         <v>39</v>
       </c>
       <c r="F173" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G173">
         <v>236</v>
@@ -11304,11 +10701,11 @@
       </c>
       <c r="K173">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L173">
         <f t="shared" si="14"/>
-        <v>44431.5138888889</v>
+        <v>44431.513888888891</v>
       </c>
       <c r="M173" s="3">
         <v>44431</v>
@@ -11319,11 +10716,11 @@
       </c>
       <c r="O173">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P173">
         <f t="shared" si="17"/>
-        <v>44431.5868055556</v>
+        <v>44431.586805555555</v>
       </c>
       <c r="Q173">
         <v>812</v>
@@ -11337,7 +10734,7 @@
         <v>39</v>
       </c>
       <c r="C174" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D174">
         <v>234</v>
@@ -11346,7 +10743,7 @@
         <v>39</v>
       </c>
       <c r="F174" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G174">
         <v>237</v>
@@ -11363,11 +10760,11 @@
       </c>
       <c r="K174">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L174">
         <f t="shared" si="14"/>
-        <v>44431.5763888889</v>
+        <v>44431.576388888891</v>
       </c>
       <c r="M174" s="3">
         <v>44431</v>
@@ -11378,11 +10775,11 @@
       </c>
       <c r="O174">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P174">
         <f t="shared" si="17"/>
-        <v>44431.6458333333</v>
+        <v>44431.645833333336</v>
       </c>
       <c r="Q174">
         <v>854</v>
@@ -11396,7 +10793,7 @@
         <v>39</v>
       </c>
       <c r="C175" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D175">
         <v>237</v>
@@ -11405,7 +10802,7 @@
         <v>39</v>
       </c>
       <c r="F175" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G175">
         <v>234</v>
@@ -11422,11 +10819,11 @@
       </c>
       <c r="K175">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L175">
         <f t="shared" si="14"/>
-        <v>44431.6041666667</v>
+        <v>44431.604166666664</v>
       </c>
       <c r="M175" s="3">
         <v>44431</v>
@@ -11437,11 +10834,11 @@
       </c>
       <c r="O175">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P175">
         <f t="shared" si="17"/>
-        <v>44431.7013888889</v>
+        <v>44431.701388888891</v>
       </c>
       <c r="Q175">
         <v>885</v>
@@ -11455,7 +10852,7 @@
         <v>39</v>
       </c>
       <c r="C176" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D176">
         <v>236</v>
@@ -11464,7 +10861,7 @@
         <v>39</v>
       </c>
       <c r="F176" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G176">
         <v>234</v>
@@ -11481,11 +10878,11 @@
       </c>
       <c r="K176">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L176">
         <f t="shared" si="14"/>
-        <v>44431.6180555556</v>
+        <v>44431.618055555555</v>
       </c>
       <c r="M176" s="3">
         <v>44431</v>
@@ -11496,11 +10893,11 @@
       </c>
       <c r="O176">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P176">
         <f t="shared" si="17"/>
-        <v>44431.6944444444</v>
+        <v>44431.694444444445</v>
       </c>
       <c r="Q176">
         <v>813</v>
@@ -11514,7 +10911,7 @@
         <v>39</v>
       </c>
       <c r="C177" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D177">
         <v>237</v>
@@ -11523,7 +10920,7 @@
         <v>39</v>
       </c>
       <c r="F177" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G177">
         <v>234</v>
@@ -11540,11 +10937,11 @@
       </c>
       <c r="K177">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L177">
         <f t="shared" si="14"/>
-        <v>44431.6736111111</v>
+        <v>44431.673611111109</v>
       </c>
       <c r="M177" s="3">
         <v>44431</v>
@@ -11555,11 +10952,11 @@
       </c>
       <c r="O177">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P177">
         <f t="shared" si="17"/>
-        <v>44431.7465277778</v>
+        <v>44431.746527777781</v>
       </c>
       <c r="Q177">
         <v>855</v>
@@ -11573,7 +10970,7 @@
         <v>39</v>
       </c>
       <c r="C178" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D178">
         <v>234</v>
@@ -11582,7 +10979,7 @@
         <v>39</v>
       </c>
       <c r="F178" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G178">
         <v>237</v>
@@ -11599,11 +10996,11 @@
       </c>
       <c r="K178">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L178">
         <f t="shared" si="14"/>
-        <v>44431.7291666667</v>
+        <v>44431.729166666664</v>
       </c>
       <c r="M178" s="3">
         <v>44431</v>
@@ -11614,11 +11011,11 @@
       </c>
       <c r="O178">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P178">
         <f t="shared" si="17"/>
-        <v>44431.8020833333</v>
+        <v>44431.802083333336</v>
       </c>
       <c r="Q178">
         <v>864</v>
@@ -11632,7 +11029,7 @@
         <v>39</v>
       </c>
       <c r="C179" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D179">
         <v>237</v>
@@ -11658,11 +11055,11 @@
       </c>
       <c r="K179">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L179">
         <f t="shared" si="14"/>
-        <v>44431.8333333333</v>
+        <v>44431.833333333336</v>
       </c>
       <c r="M179" s="3">
         <v>44431</v>
@@ -11700,7 +11097,7 @@
         <v>40</v>
       </c>
       <c r="F180" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G180">
         <v>237</v>
@@ -11732,11 +11129,11 @@
       </c>
       <c r="O180">
         <f t="shared" si="16"/>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P180">
         <f t="shared" si="17"/>
-        <v>44432.4097222222</v>
+        <v>44432.409722222219</v>
       </c>
       <c r="Q180">
         <v>890</v>
@@ -11750,7 +11147,7 @@
         <v>40</v>
       </c>
       <c r="C181" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D181">
         <v>234</v>
@@ -11762,7 +11159,7 @@
         <v>0.375</v>
       </c>
       <c r="G181">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H181" t="s">
         <v>10</v>
@@ -11776,11 +11173,11 @@
       </c>
       <c r="K181">
         <f t="shared" si="13"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L181">
         <f t="shared" si="14"/>
-        <v>44432.3298611111</v>
+        <v>44432.329861111109</v>
       </c>
       <c r="M181" s="3">
         <v>44432</v>
@@ -11809,7 +11206,7 @@
         <v>40</v>
       </c>
       <c r="C182" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D182">
         <v>234</v>
@@ -11818,7 +11215,7 @@
         <v>40</v>
       </c>
       <c r="F182" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G182">
         <v>235</v>
@@ -11835,11 +11232,11 @@
       </c>
       <c r="K182">
         <f t="shared" si="13"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L182">
         <f t="shared" si="14"/>
-        <v>44432.3333333333</v>
+        <v>44432.333333333336</v>
       </c>
       <c r="M182" s="3">
         <v>44432</v>
@@ -11850,11 +11247,11 @@
       </c>
       <c r="O182">
         <f t="shared" si="16"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P182">
         <f t="shared" si="17"/>
-        <v>44432.3958333333</v>
+        <v>44432.395833333336</v>
       </c>
       <c r="Q182">
         <v>680</v>
@@ -11868,16 +11265,16 @@
         <v>40</v>
       </c>
       <c r="C183" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D183">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E183" t="s">
         <v>40</v>
       </c>
       <c r="F183" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G183">
         <v>234</v>
@@ -11894,11 +11291,11 @@
       </c>
       <c r="K183">
         <f t="shared" si="13"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L183">
         <f t="shared" si="14"/>
-        <v>44432.4027777778</v>
+        <v>44432.402777777781</v>
       </c>
       <c r="M183" s="3">
         <v>44432</v>
@@ -11909,11 +11306,11 @@
       </c>
       <c r="O183">
         <f t="shared" si="16"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P183">
         <f t="shared" si="17"/>
-        <v>44432.4513888889</v>
+        <v>44432.451388888891</v>
       </c>
       <c r="Q183">
         <v>873</v>
@@ -11927,7 +11324,7 @@
         <v>40</v>
       </c>
       <c r="C184" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D184">
         <v>235</v>
@@ -11936,7 +11333,7 @@
         <v>40</v>
       </c>
       <c r="F184" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G184">
         <v>234</v>
@@ -11953,11 +11350,11 @@
       </c>
       <c r="K184">
         <f t="shared" si="13"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L184">
         <f t="shared" si="14"/>
-        <v>44432.4236111111</v>
+        <v>44432.423611111109</v>
       </c>
       <c r="M184" s="3">
         <v>44432</v>
@@ -11968,11 +11365,11 @@
       </c>
       <c r="O184">
         <f t="shared" si="16"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P184">
         <f t="shared" si="17"/>
-        <v>44432.4861111111</v>
+        <v>44432.486111111109</v>
       </c>
       <c r="Q184">
         <v>681</v>
@@ -11995,7 +11392,7 @@
         <v>40</v>
       </c>
       <c r="F185" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G185">
         <v>234</v>
@@ -12027,11 +11424,11 @@
       </c>
       <c r="O185">
         <f t="shared" si="16"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P185">
         <f t="shared" si="17"/>
-        <v>44432.5347222222</v>
+        <v>44432.534722222219</v>
       </c>
       <c r="Q185">
         <v>891</v>
@@ -12045,7 +11442,7 @@
         <v>40</v>
       </c>
       <c r="C186" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D186">
         <v>234</v>
@@ -12054,7 +11451,7 @@
         <v>40</v>
       </c>
       <c r="F186" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G186">
         <v>237</v>
@@ -12071,11 +11468,11 @@
       </c>
       <c r="K186">
         <f t="shared" si="13"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L186">
         <f t="shared" si="14"/>
-        <v>44432.4791666667</v>
+        <v>44432.479166666664</v>
       </c>
       <c r="M186" s="3">
         <v>44432</v>
@@ -12086,11 +11483,11 @@
       </c>
       <c r="O186">
         <f t="shared" si="16"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P186">
         <f t="shared" si="17"/>
-        <v>44432.5763888889</v>
+        <v>44432.576388888891</v>
       </c>
       <c r="Q186">
         <v>884</v>
@@ -12104,7 +11501,7 @@
         <v>40</v>
       </c>
       <c r="C187" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D187">
         <v>234</v>
@@ -12113,7 +11510,7 @@
         <v>40</v>
       </c>
       <c r="F187" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G187">
         <v>236</v>
@@ -12130,11 +11527,11 @@
       </c>
       <c r="K187">
         <f t="shared" si="13"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L187">
         <f t="shared" si="14"/>
-        <v>44432.5138888889</v>
+        <v>44432.513888888891</v>
       </c>
       <c r="M187" s="3">
         <v>44432</v>
@@ -12145,11 +11542,11 @@
       </c>
       <c r="O187">
         <f t="shared" si="16"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P187">
         <f t="shared" si="17"/>
-        <v>44432.5868055556</v>
+        <v>44432.586805555555</v>
       </c>
       <c r="Q187">
         <v>812</v>
@@ -12163,7 +11560,7 @@
         <v>40</v>
       </c>
       <c r="C188" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D188">
         <v>234</v>
@@ -12172,7 +11569,7 @@
         <v>40</v>
       </c>
       <c r="F188" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G188">
         <v>237</v>
@@ -12189,11 +11586,11 @@
       </c>
       <c r="K188">
         <f t="shared" si="13"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L188">
         <f t="shared" si="14"/>
-        <v>44432.5763888889</v>
+        <v>44432.576388888891</v>
       </c>
       <c r="M188" s="3">
         <v>44432</v>
@@ -12204,11 +11601,11 @@
       </c>
       <c r="O188">
         <f t="shared" si="16"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P188">
         <f t="shared" si="17"/>
-        <v>44432.6458333333</v>
+        <v>44432.645833333336</v>
       </c>
       <c r="Q188">
         <v>854</v>
@@ -12222,7 +11619,7 @@
         <v>40</v>
       </c>
       <c r="C189" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D189">
         <v>237</v>
@@ -12231,7 +11628,7 @@
         <v>40</v>
       </c>
       <c r="F189" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G189">
         <v>234</v>
@@ -12248,11 +11645,11 @@
       </c>
       <c r="K189">
         <f t="shared" si="13"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L189">
         <f t="shared" si="14"/>
-        <v>44432.6041666667</v>
+        <v>44432.604166666664</v>
       </c>
       <c r="M189" s="3">
         <v>44432</v>
@@ -12263,11 +11660,11 @@
       </c>
       <c r="O189">
         <f t="shared" si="16"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P189">
         <f t="shared" si="17"/>
-        <v>44432.7013888889</v>
+        <v>44432.701388888891</v>
       </c>
       <c r="Q189">
         <v>885</v>
@@ -12281,7 +11678,7 @@
         <v>40</v>
       </c>
       <c r="C190" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D190">
         <v>236</v>
@@ -12290,7 +11687,7 @@
         <v>40</v>
       </c>
       <c r="F190" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G190">
         <v>234</v>
@@ -12307,11 +11704,11 @@
       </c>
       <c r="K190">
         <f t="shared" si="13"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L190">
         <f t="shared" si="14"/>
-        <v>44432.6180555556</v>
+        <v>44432.618055555555</v>
       </c>
       <c r="M190" s="3">
         <v>44432</v>
@@ -12322,11 +11719,11 @@
       </c>
       <c r="O190">
         <f t="shared" si="16"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P190">
         <f t="shared" si="17"/>
-        <v>44432.6944444444</v>
+        <v>44432.694444444445</v>
       </c>
       <c r="Q190">
         <v>813</v>
@@ -12340,7 +11737,7 @@
         <v>40</v>
       </c>
       <c r="C191" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D191">
         <v>237</v>
@@ -12349,7 +11746,7 @@
         <v>40</v>
       </c>
       <c r="F191" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G191">
         <v>234</v>
@@ -12366,11 +11763,11 @@
       </c>
       <c r="K191">
         <f t="shared" si="13"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L191">
         <f t="shared" si="14"/>
-        <v>44432.6736111111</v>
+        <v>44432.673611111109</v>
       </c>
       <c r="M191" s="3">
         <v>44432</v>
@@ -12381,11 +11778,11 @@
       </c>
       <c r="O191">
         <f t="shared" si="16"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P191">
         <f t="shared" si="17"/>
-        <v>44432.7465277778</v>
+        <v>44432.746527777781</v>
       </c>
       <c r="Q191">
         <v>855</v>
@@ -12399,7 +11796,7 @@
         <v>40</v>
       </c>
       <c r="C192" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D192">
         <v>234</v>
@@ -12408,7 +11805,7 @@
         <v>40</v>
       </c>
       <c r="F192" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G192">
         <v>237</v>
@@ -12425,11 +11822,11 @@
       </c>
       <c r="K192">
         <f t="shared" si="13"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L192">
         <f t="shared" si="14"/>
-        <v>44432.7291666667</v>
+        <v>44432.729166666664</v>
       </c>
       <c r="M192" s="3">
         <v>44432</v>
@@ -12440,11 +11837,11 @@
       </c>
       <c r="O192">
         <f t="shared" si="16"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P192">
         <f t="shared" si="17"/>
-        <v>44432.8020833333</v>
+        <v>44432.802083333336</v>
       </c>
       <c r="Q192">
         <v>864</v>
@@ -12458,7 +11855,7 @@
         <v>40</v>
       </c>
       <c r="C193" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D193">
         <v>237</v>
@@ -12484,11 +11881,11 @@
       </c>
       <c r="K193">
         <f t="shared" si="13"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L193">
         <f t="shared" si="14"/>
-        <v>44432.8333333333</v>
+        <v>44432.833333333336</v>
       </c>
       <c r="M193" s="3">
         <v>44432</v>
@@ -12526,7 +11923,7 @@
         <v>41</v>
       </c>
       <c r="F194" s="2">
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="G194">
         <v>237</v>
@@ -12558,11 +11955,11 @@
       </c>
       <c r="O194">
         <f t="shared" ref="O194:O207" si="22">VALUE(F194)</f>
-        <v>0.409722222222222</v>
+        <v>0.40972222222222199</v>
       </c>
       <c r="P194">
         <f t="shared" ref="P194:P207" si="23">N194+O194</f>
-        <v>44433.4097222222</v>
+        <v>44433.409722222219</v>
       </c>
       <c r="Q194">
         <v>890</v>
@@ -12576,7 +11973,7 @@
         <v>41</v>
       </c>
       <c r="C195" s="2">
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="D195">
         <v>234</v>
@@ -12588,7 +11985,7 @@
         <v>0.375</v>
       </c>
       <c r="G195">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H195" t="s">
         <v>10</v>
@@ -12602,11 +11999,11 @@
       </c>
       <c r="K195">
         <f t="shared" si="19"/>
-        <v>0.329861111111111</v>
+        <v>0.32986111111111099</v>
       </c>
       <c r="L195">
         <f t="shared" si="20"/>
-        <v>44433.3298611111</v>
+        <v>44433.329861111109</v>
       </c>
       <c r="M195" s="3">
         <v>44433</v>
@@ -12635,7 +12032,7 @@
         <v>41</v>
       </c>
       <c r="C196" s="2">
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D196">
         <v>234</v>
@@ -12644,7 +12041,7 @@
         <v>41</v>
       </c>
       <c r="F196" s="2">
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="G196">
         <v>235</v>
@@ -12661,11 +12058,11 @@
       </c>
       <c r="K196">
         <f t="shared" si="19"/>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="L196">
         <f t="shared" si="20"/>
-        <v>44433.3333333333</v>
+        <v>44433.333333333336</v>
       </c>
       <c r="M196" s="3">
         <v>44433</v>
@@ -12676,11 +12073,11 @@
       </c>
       <c r="O196">
         <f t="shared" si="22"/>
-        <v>0.395833333333333</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="P196">
         <f t="shared" si="23"/>
-        <v>44433.3958333333</v>
+        <v>44433.395833333336</v>
       </c>
       <c r="Q196">
         <v>680</v>
@@ -12694,16 +12091,16 @@
         <v>41</v>
       </c>
       <c r="C197" s="2">
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="D197">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E197" t="s">
         <v>41</v>
       </c>
       <c r="F197" s="2">
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="G197">
         <v>234</v>
@@ -12720,11 +12117,11 @@
       </c>
       <c r="K197">
         <f t="shared" si="19"/>
-        <v>0.402777777777778</v>
+        <v>0.40277777777777801</v>
       </c>
       <c r="L197">
         <f t="shared" si="20"/>
-        <v>44433.4027777778</v>
+        <v>44433.402777777781</v>
       </c>
       <c r="M197" s="3">
         <v>44433</v>
@@ -12735,11 +12132,11 @@
       </c>
       <c r="O197">
         <f t="shared" si="22"/>
-        <v>0.451388888888889</v>
+        <v>0.45138888888888901</v>
       </c>
       <c r="P197">
         <f t="shared" si="23"/>
-        <v>44433.4513888889</v>
+        <v>44433.451388888891</v>
       </c>
       <c r="Q197">
         <v>873</v>
@@ -12753,7 +12150,7 @@
         <v>41</v>
       </c>
       <c r="C198" s="2">
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D198">
         <v>235</v>
@@ -12762,7 +12159,7 @@
         <v>41</v>
       </c>
       <c r="F198" s="2">
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="G198">
         <v>234</v>
@@ -12779,11 +12176,11 @@
       </c>
       <c r="K198">
         <f t="shared" si="19"/>
-        <v>0.423611111111111</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="L198">
         <f t="shared" si="20"/>
-        <v>44433.4236111111</v>
+        <v>44433.423611111109</v>
       </c>
       <c r="M198" s="3">
         <v>44433</v>
@@ -12794,11 +12191,11 @@
       </c>
       <c r="O198">
         <f t="shared" si="22"/>
-        <v>0.486111111111111</v>
+        <v>0.48611111111111099</v>
       </c>
       <c r="P198">
         <f t="shared" si="23"/>
-        <v>44433.4861111111</v>
+        <v>44433.486111111109</v>
       </c>
       <c r="Q198">
         <v>681</v>
@@ -12821,7 +12218,7 @@
         <v>41</v>
       </c>
       <c r="F199" s="2">
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="G199">
         <v>234</v>
@@ -12853,11 +12250,11 @@
       </c>
       <c r="O199">
         <f t="shared" si="22"/>
-        <v>0.534722222222222</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="P199">
         <f t="shared" si="23"/>
-        <v>44433.5347222222</v>
+        <v>44433.534722222219</v>
       </c>
       <c r="Q199">
         <v>891</v>
@@ -12871,7 +12268,7 @@
         <v>41</v>
       </c>
       <c r="C200" s="2">
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D200">
         <v>234</v>
@@ -12880,7 +12277,7 @@
         <v>41</v>
       </c>
       <c r="F200" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G200">
         <v>237</v>
@@ -12897,11 +12294,11 @@
       </c>
       <c r="K200">
         <f t="shared" si="19"/>
-        <v>0.479166666666667</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="L200">
         <f t="shared" si="20"/>
-        <v>44433.4791666667</v>
+        <v>44433.479166666664</v>
       </c>
       <c r="M200" s="3">
         <v>44433</v>
@@ -12912,11 +12309,11 @@
       </c>
       <c r="O200">
         <f t="shared" si="22"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="P200">
         <f t="shared" si="23"/>
-        <v>44433.5763888889</v>
+        <v>44433.576388888891</v>
       </c>
       <c r="Q200">
         <v>884</v>
@@ -12930,7 +12327,7 @@
         <v>41</v>
       </c>
       <c r="C201" s="2">
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D201">
         <v>234</v>
@@ -12939,7 +12336,7 @@
         <v>41</v>
       </c>
       <c r="F201" s="2">
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="G201">
         <v>236</v>
@@ -12956,11 +12353,11 @@
       </c>
       <c r="K201">
         <f t="shared" si="19"/>
-        <v>0.513888888888889</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="L201">
         <f t="shared" si="20"/>
-        <v>44433.5138888889</v>
+        <v>44433.513888888891</v>
       </c>
       <c r="M201" s="3">
         <v>44433</v>
@@ -12971,11 +12368,11 @@
       </c>
       <c r="O201">
         <f t="shared" si="22"/>
-        <v>0.586805555555556</v>
+        <v>0.58680555555555602</v>
       </c>
       <c r="P201">
         <f t="shared" si="23"/>
-        <v>44433.5868055556</v>
+        <v>44433.586805555555</v>
       </c>
       <c r="Q201">
         <v>812</v>
@@ -12989,7 +12386,7 @@
         <v>41</v>
       </c>
       <c r="C202" s="2">
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D202">
         <v>234</v>
@@ -12998,7 +12395,7 @@
         <v>41</v>
       </c>
       <c r="F202" s="2">
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="G202">
         <v>237</v>
@@ -13015,11 +12412,11 @@
       </c>
       <c r="K202">
         <f t="shared" si="19"/>
-        <v>0.576388888888889</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="L202">
         <f t="shared" si="20"/>
-        <v>44433.5763888889</v>
+        <v>44433.576388888891</v>
       </c>
       <c r="M202" s="3">
         <v>44433</v>
@@ -13030,11 +12427,11 @@
       </c>
       <c r="O202">
         <f t="shared" si="22"/>
-        <v>0.645833333333333</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="P202">
         <f t="shared" si="23"/>
-        <v>44433.6458333333</v>
+        <v>44433.645833333336</v>
       </c>
       <c r="Q202">
         <v>854</v>
@@ -13048,7 +12445,7 @@
         <v>41</v>
       </c>
       <c r="C203" s="2">
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="D203">
         <v>237</v>
@@ -13057,7 +12454,7 @@
         <v>41</v>
       </c>
       <c r="F203" s="2">
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="G203">
         <v>234</v>
@@ -13074,11 +12471,11 @@
       </c>
       <c r="K203">
         <f t="shared" si="19"/>
-        <v>0.604166666666667</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="L203">
         <f t="shared" si="20"/>
-        <v>44433.6041666667</v>
+        <v>44433.604166666664</v>
       </c>
       <c r="M203" s="3">
         <v>44433</v>
@@ -13089,11 +12486,11 @@
       </c>
       <c r="O203">
         <f t="shared" si="22"/>
-        <v>0.701388888888889</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="P203">
         <f t="shared" si="23"/>
-        <v>44433.7013888889</v>
+        <v>44433.701388888891</v>
       </c>
       <c r="Q203">
         <v>885</v>
@@ -13107,7 +12504,7 @@
         <v>41</v>
       </c>
       <c r="C204" s="2">
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="D204">
         <v>236</v>
@@ -13116,7 +12513,7 @@
         <v>41</v>
       </c>
       <c r="F204" s="2">
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="G204">
         <v>234</v>
@@ -13133,11 +12530,11 @@
       </c>
       <c r="K204">
         <f t="shared" si="19"/>
-        <v>0.618055555555556</v>
+        <v>0.61805555555555602</v>
       </c>
       <c r="L204">
         <f t="shared" si="20"/>
-        <v>44433.6180555556</v>
+        <v>44433.618055555555</v>
       </c>
       <c r="M204" s="3">
         <v>44433</v>
@@ -13148,11 +12545,11 @@
       </c>
       <c r="O204">
         <f t="shared" si="22"/>
-        <v>0.694444444444445</v>
+        <v>0.69444444444444497</v>
       </c>
       <c r="P204">
         <f t="shared" si="23"/>
-        <v>44433.6944444444</v>
+        <v>44433.694444444445</v>
       </c>
       <c r="Q204">
         <v>813</v>
@@ -13166,7 +12563,7 @@
         <v>41</v>
       </c>
       <c r="C205" s="2">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D205">
         <v>237</v>
@@ -13175,7 +12572,7 @@
         <v>41</v>
       </c>
       <c r="F205" s="2">
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="G205">
         <v>234</v>
@@ -13192,11 +12589,11 @@
       </c>
       <c r="K205">
         <f t="shared" si="19"/>
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="L205">
         <f t="shared" si="20"/>
-        <v>44433.6736111111</v>
+        <v>44433.673611111109</v>
       </c>
       <c r="M205" s="3">
         <v>44433</v>
@@ -13207,11 +12604,11 @@
       </c>
       <c r="O205">
         <f t="shared" si="22"/>
-        <v>0.746527777777778</v>
+        <v>0.74652777777777801</v>
       </c>
       <c r="P205">
         <f t="shared" si="23"/>
-        <v>44433.7465277778</v>
+        <v>44433.746527777781</v>
       </c>
       <c r="Q205">
         <v>855</v>
@@ -13225,7 +12622,7 @@
         <v>41</v>
       </c>
       <c r="C206" s="2">
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="D206">
         <v>234</v>
@@ -13234,7 +12631,7 @@
         <v>41</v>
       </c>
       <c r="F206" s="2">
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G206">
         <v>237</v>
@@ -13251,11 +12648,11 @@
       </c>
       <c r="K206">
         <f t="shared" si="19"/>
-        <v>0.729166666666667</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="L206">
         <f t="shared" si="20"/>
-        <v>44433.7291666667</v>
+        <v>44433.729166666664</v>
       </c>
       <c r="M206" s="3">
         <v>44433</v>
@@ -13266,11 +12663,11 @@
       </c>
       <c r="O206">
         <f t="shared" si="22"/>
-        <v>0.802083333333333</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="P206">
         <f t="shared" si="23"/>
-        <v>44433.8020833333</v>
+        <v>44433.802083333336</v>
       </c>
       <c r="Q206">
         <v>864</v>
@@ -13284,7 +12681,7 @@
         <v>41</v>
       </c>
       <c r="C207" s="2">
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D207">
         <v>237</v>
@@ -13310,11 +12707,11 @@
       </c>
       <c r="K207">
         <f t="shared" si="19"/>
-        <v>0.833333333333333</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="L207">
         <f t="shared" si="20"/>
-        <v>44433.8333333333</v>
+        <v>44433.833333333336</v>
       </c>
       <c r="M207" s="3">
         <v>44433</v>
@@ -13336,13 +12733,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q207">
-    <sortState ref="A1:Q207">
-      <sortCondition ref="L1:L207"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:Q207" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/2021年F题第2问/A/机组排班Data A-Flight.xlsx
+++ b/2021年F题第2问/A/机组排班Data A-Flight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzhenhua/Documents/GitHub/Postgraduate-Mathematical-Contest-in-Modelling/2021年F题第2问/A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d07194e81ce8b07/代码/MATLAB/数学建模/2021数学建模F题/3/A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0A0C81-84F7-5D4B-883B-0DC1C9E35044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5D0A0C81-84F7-5D4B-883B-0DC1C9E35044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B649BD0A-7B08-C743-956F-D06AF9FD3AED}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1100" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="4580" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机组排班Data A-Flight - 副本" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yymmdd"/>
+    <numFmt numFmtId="176" formatCode="yymmdd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -213,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -527,13 +527,15 @@
   <dimension ref="A1:R207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125"/>
     <col min="9" max="9" width="11.1640625" customWidth="1"/>
     <col min="12" max="12" width="12.83203125"/>
     <col min="13" max="13" width="11.83203125" customWidth="1"/>
@@ -716,7 +718,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -775,7 +777,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -825,7 +827,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D6">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -884,7 +886,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D7">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -952,7 +954,7 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="G8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -1011,7 +1013,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G9">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -1061,7 +1063,7 @@
         <v>0.82291666666666696</v>
       </c>
       <c r="D10">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1120,7 +1122,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1188,7 +1190,7 @@
         <v>0.375</v>
       </c>
       <c r="G12">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -1297,7 +1299,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D14">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -1533,7 +1535,7 @@
         <v>0.4375</v>
       </c>
       <c r="D18">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -1601,7 +1603,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G19">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
@@ -1660,7 +1662,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G20">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -1719,7 +1721,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G21">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
@@ -1769,7 +1771,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D22">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1828,7 +1830,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D23">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1887,7 +1889,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D24">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
@@ -1955,7 +1957,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G25">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H25" t="s">
         <v>10</v>
@@ -2005,7 +2007,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D26">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
         <v>21</v>
@@ -2073,7 +2075,7 @@
         <v>0.375</v>
       </c>
       <c r="G27">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H27" t="s">
         <v>10</v>
@@ -2182,7 +2184,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D29">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -2309,7 +2311,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G31">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" t="s">
         <v>10</v>
@@ -2368,7 +2370,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G32">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
@@ -2427,7 +2429,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G33">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
@@ -2477,7 +2479,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D34">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
@@ -2536,7 +2538,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D35">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
@@ -2595,7 +2597,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D36">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -2663,7 +2665,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G37">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
         <v>10</v>
@@ -2713,7 +2715,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D38">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
         <v>26</v>
@@ -2781,7 +2783,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G39">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H39" t="s">
         <v>10</v>
@@ -2840,7 +2842,7 @@
         <v>0.375</v>
       </c>
       <c r="G40">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H40" t="s">
         <v>10</v>
@@ -2949,7 +2951,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D42">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
@@ -3067,7 +3069,7 @@
         <v>0.4375</v>
       </c>
       <c r="D44">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
@@ -3135,7 +3137,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G45">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H45" t="s">
         <v>10</v>
@@ -3194,7 +3196,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G46">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H46" t="s">
         <v>10</v>
@@ -3253,7 +3255,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G47">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
         <v>10</v>
@@ -3303,7 +3305,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D48">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
@@ -3362,7 +3364,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D49">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
@@ -3421,7 +3423,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D50">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -3489,7 +3491,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G51">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H51" t="s">
         <v>10</v>
@@ -3539,7 +3541,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D52">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
@@ -3607,7 +3609,7 @@
         <v>0.375</v>
       </c>
       <c r="G53">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H53" t="s">
         <v>10</v>
@@ -3716,7 +3718,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D55">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
         <v>29</v>
@@ -3834,7 +3836,7 @@
         <v>0.4375</v>
       </c>
       <c r="D57">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E57" t="s">
         <v>29</v>
@@ -3902,7 +3904,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G58">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H58" t="s">
         <v>10</v>
@@ -3961,7 +3963,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G59">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H59" t="s">
         <v>10</v>
@@ -4020,7 +4022,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G60">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H60" t="s">
         <v>10</v>
@@ -4070,7 +4072,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D61">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
         <v>29</v>
@@ -4129,7 +4131,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D62">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
         <v>29</v>
@@ -4188,7 +4190,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D63">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
         <v>29</v>
@@ -4256,7 +4258,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G64">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H64" t="s">
         <v>10</v>
@@ -4306,7 +4308,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D65">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
         <v>29</v>
@@ -4374,7 +4376,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G66">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H66" t="s">
         <v>10</v>
@@ -4433,7 +4435,7 @@
         <v>0.375</v>
       </c>
       <c r="G67">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H67" t="s">
         <v>10</v>
@@ -4542,7 +4544,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D69">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E69" t="s">
         <v>30</v>
@@ -4660,7 +4662,7 @@
         <v>0.4375</v>
       </c>
       <c r="D71">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
         <v>30</v>
@@ -4728,7 +4730,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G72">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H72" t="s">
         <v>10</v>
@@ -4787,7 +4789,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G73">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H73" t="s">
         <v>10</v>
@@ -4846,7 +4848,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G74">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H74" t="s">
         <v>10</v>
@@ -4896,7 +4898,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D75">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
@@ -4955,7 +4957,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D76">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E76" t="s">
         <v>30</v>
@@ -5014,7 +5016,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D77">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E77" t="s">
         <v>30</v>
@@ -5082,7 +5084,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G78">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H78" t="s">
         <v>10</v>
@@ -5132,7 +5134,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D79">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
@@ -5200,7 +5202,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G80">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H80" t="s">
         <v>10</v>
@@ -5259,7 +5261,7 @@
         <v>0.375</v>
       </c>
       <c r="G81">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H81" t="s">
         <v>10</v>
@@ -5368,7 +5370,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D83">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
         <v>31</v>
@@ -5486,7 +5488,7 @@
         <v>0.4375</v>
       </c>
       <c r="D85">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
         <v>31</v>
@@ -5554,7 +5556,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G86">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H86" t="s">
         <v>10</v>
@@ -5613,7 +5615,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G87">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H87" t="s">
         <v>10</v>
@@ -5672,7 +5674,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G88">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H88" t="s">
         <v>10</v>
@@ -5722,7 +5724,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D89">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E89" t="s">
         <v>31</v>
@@ -5781,7 +5783,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D90">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E90" t="s">
         <v>31</v>
@@ -5840,7 +5842,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D91">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
         <v>31</v>
@@ -5908,7 +5910,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G92">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H92" t="s">
         <v>10</v>
@@ -5958,7 +5960,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D93">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E93" t="s">
         <v>31</v>
@@ -6026,7 +6028,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G94">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H94" t="s">
         <v>10</v>
@@ -6085,7 +6087,7 @@
         <v>0.375</v>
       </c>
       <c r="G95">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
@@ -6194,7 +6196,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D97">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E97" t="s">
         <v>32</v>
@@ -6312,7 +6314,7 @@
         <v>0.4375</v>
       </c>
       <c r="D99">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E99" t="s">
         <v>32</v>
@@ -6380,7 +6382,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G100">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H100" t="s">
         <v>10</v>
@@ -6439,7 +6441,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G101">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H101" t="s">
         <v>10</v>
@@ -6498,7 +6500,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G102">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H102" t="s">
         <v>10</v>
@@ -6548,7 +6550,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D103">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E103" t="s">
         <v>32</v>
@@ -6607,7 +6609,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D104">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E104" t="s">
         <v>32</v>
@@ -6666,7 +6668,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D105">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E105" t="s">
         <v>32</v>
@@ -6734,7 +6736,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G106">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H106" t="s">
         <v>10</v>
@@ -6793,7 +6795,7 @@
         <v>0.875</v>
       </c>
       <c r="G107">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H107" t="s">
         <v>10</v>
@@ -6843,7 +6845,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D108">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
         <v>32</v>
@@ -6902,7 +6904,7 @@
         <v>0.90277777777777801</v>
       </c>
       <c r="D109">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E109" t="s">
         <v>35</v>
@@ -6970,7 +6972,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G110">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H110" t="s">
         <v>10</v>
@@ -7029,7 +7031,7 @@
         <v>0.375</v>
       </c>
       <c r="G111">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H111" t="s">
         <v>10</v>
@@ -7138,7 +7140,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D113">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E113" t="s">
         <v>35</v>
@@ -7256,7 +7258,7 @@
         <v>0.4375</v>
       </c>
       <c r="D115">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E115" t="s">
         <v>35</v>
@@ -7324,7 +7326,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G116">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H116" t="s">
         <v>10</v>
@@ -7383,7 +7385,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G117">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H117" t="s">
         <v>10</v>
@@ -7442,7 +7444,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G118">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H118" t="s">
         <v>10</v>
@@ -7492,7 +7494,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D119">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E119" t="s">
         <v>35</v>
@@ -7551,7 +7553,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D120">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E120" t="s">
         <v>35</v>
@@ -7610,7 +7612,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D121">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E121" t="s">
         <v>35</v>
@@ -7678,7 +7680,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G122">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H122" t="s">
         <v>10</v>
@@ -7728,7 +7730,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D123">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E123" t="s">
         <v>35</v>
@@ -7796,7 +7798,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G124">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H124" t="s">
         <v>10</v>
@@ -7855,7 +7857,7 @@
         <v>0.375</v>
       </c>
       <c r="G125">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H125" t="s">
         <v>10</v>
@@ -7964,7 +7966,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D127">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
@@ -8082,7 +8084,7 @@
         <v>0.4375</v>
       </c>
       <c r="D129">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E129" t="s">
         <v>36</v>
@@ -8150,7 +8152,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G130">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H130" t="s">
         <v>10</v>
@@ -8209,7 +8211,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G131">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H131" t="s">
         <v>10</v>
@@ -8268,7 +8270,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G132">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H132" t="s">
         <v>10</v>
@@ -8318,7 +8320,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D133">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133" t="s">
         <v>36</v>
@@ -8377,7 +8379,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D134">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E134" t="s">
         <v>36</v>
@@ -8436,7 +8438,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D135">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E135" t="s">
         <v>36</v>
@@ -8504,7 +8506,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G136">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H136" t="s">
         <v>10</v>
@@ -8554,7 +8556,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D137">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E137" t="s">
         <v>36</v>
@@ -8622,7 +8624,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G138">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H138" t="s">
         <v>10</v>
@@ -8681,7 +8683,7 @@
         <v>0.375</v>
       </c>
       <c r="G139">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H139" t="s">
         <v>10</v>
@@ -8790,7 +8792,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D141">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E141" t="s">
         <v>37</v>
@@ -8908,7 +8910,7 @@
         <v>0.4375</v>
       </c>
       <c r="D143">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E143" t="s">
         <v>37</v>
@@ -8976,7 +8978,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G144">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H144" t="s">
         <v>10</v>
@@ -9035,7 +9037,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G145">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H145" t="s">
         <v>10</v>
@@ -9094,7 +9096,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G146">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H146" t="s">
         <v>10</v>
@@ -9144,7 +9146,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D147">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E147" t="s">
         <v>37</v>
@@ -9203,7 +9205,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D148">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E148" t="s">
         <v>37</v>
@@ -9262,7 +9264,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D149">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E149" t="s">
         <v>37</v>
@@ -9330,7 +9332,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G150">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H150" t="s">
         <v>10</v>
@@ -9380,7 +9382,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D151">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E151" t="s">
         <v>37</v>
@@ -9448,7 +9450,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G152">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H152" t="s">
         <v>10</v>
@@ -9507,7 +9509,7 @@
         <v>0.375</v>
       </c>
       <c r="G153">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H153" t="s">
         <v>10</v>
@@ -9616,7 +9618,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D155">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
@@ -9734,7 +9736,7 @@
         <v>0.4375</v>
       </c>
       <c r="D157">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
@@ -9802,7 +9804,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G158">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H158" t="s">
         <v>10</v>
@@ -9861,7 +9863,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G159">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H159" t="s">
         <v>10</v>
@@ -9920,7 +9922,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G160">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H160" t="s">
         <v>10</v>
@@ -9970,7 +9972,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D161">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E161" t="s">
         <v>38</v>
@@ -10029,7 +10031,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D162">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E162" t="s">
         <v>38</v>
@@ -10088,7 +10090,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D163">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E163" t="s">
         <v>38</v>
@@ -10156,7 +10158,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G164">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H164" t="s">
         <v>10</v>
@@ -10206,7 +10208,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D165">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E165" t="s">
         <v>38</v>
@@ -10274,7 +10276,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G166">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H166" t="s">
         <v>10</v>
@@ -10333,7 +10335,7 @@
         <v>0.375</v>
       </c>
       <c r="G167">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H167" t="s">
         <v>10</v>
@@ -10442,7 +10444,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D169">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E169" t="s">
         <v>39</v>
@@ -10560,7 +10562,7 @@
         <v>0.4375</v>
       </c>
       <c r="D171">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E171" t="s">
         <v>39</v>
@@ -10628,7 +10630,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G172">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H172" t="s">
         <v>10</v>
@@ -10687,7 +10689,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G173">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H173" t="s">
         <v>10</v>
@@ -10746,7 +10748,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G174">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H174" t="s">
         <v>10</v>
@@ -10796,7 +10798,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D175">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E175" t="s">
         <v>39</v>
@@ -10855,7 +10857,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D176">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E176" t="s">
         <v>39</v>
@@ -10914,7 +10916,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D177">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E177" t="s">
         <v>39</v>
@@ -10982,7 +10984,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G178">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H178" t="s">
         <v>10</v>
@@ -11032,7 +11034,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D179">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E179" t="s">
         <v>39</v>
@@ -11100,7 +11102,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G180">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H180" t="s">
         <v>10</v>
@@ -11159,7 +11161,7 @@
         <v>0.375</v>
       </c>
       <c r="G181">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H181" t="s">
         <v>10</v>
@@ -11268,7 +11270,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D183">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E183" t="s">
         <v>40</v>
@@ -11386,7 +11388,7 @@
         <v>0.4375</v>
       </c>
       <c r="D185">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E185" t="s">
         <v>40</v>
@@ -11454,7 +11456,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G186">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H186" t="s">
         <v>10</v>
@@ -11513,7 +11515,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G187">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H187" t="s">
         <v>10</v>
@@ -11572,7 +11574,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G188">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H188" t="s">
         <v>10</v>
@@ -11622,7 +11624,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D189">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E189" t="s">
         <v>40</v>
@@ -11681,7 +11683,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D190">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E190" t="s">
         <v>40</v>
@@ -11740,7 +11742,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D191">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E191" t="s">
         <v>40</v>
@@ -11808,7 +11810,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G192">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H192" t="s">
         <v>10</v>
@@ -11858,7 +11860,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D193">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E193" t="s">
         <v>40</v>
@@ -11926,7 +11928,7 @@
         <v>0.40972222222222199</v>
       </c>
       <c r="G194">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H194" t="s">
         <v>10</v>
@@ -11985,7 +11987,7 @@
         <v>0.375</v>
       </c>
       <c r="G195">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H195" t="s">
         <v>10</v>
@@ -12094,7 +12096,7 @@
         <v>0.40277777777777801</v>
       </c>
       <c r="D197">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E197" t="s">
         <v>41</v>
@@ -12212,7 +12214,7 @@
         <v>0.4375</v>
       </c>
       <c r="D199">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E199" t="s">
         <v>41</v>
@@ -12280,7 +12282,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="G200">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H200" t="s">
         <v>10</v>
@@ -12339,7 +12341,7 @@
         <v>0.58680555555555602</v>
       </c>
       <c r="G201">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H201" t="s">
         <v>10</v>
@@ -12398,7 +12400,7 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="G202">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H202" t="s">
         <v>10</v>
@@ -12448,7 +12450,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="D203">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E203" t="s">
         <v>41</v>
@@ -12507,7 +12509,7 @@
         <v>0.61805555555555602</v>
       </c>
       <c r="D204">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E204" t="s">
         <v>41</v>
@@ -12566,7 +12568,7 @@
         <v>0.67361111111111105</v>
       </c>
       <c r="D205">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E205" t="s">
         <v>41</v>
@@ -12634,7 +12636,7 @@
         <v>0.80208333333333304</v>
       </c>
       <c r="G206">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H206" t="s">
         <v>10</v>
@@ -12684,7 +12686,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="D207">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E207" t="s">
         <v>41</v>
